--- a/xlam/count_around.xlsx
+++ b/xlam/count_around.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\860230\хлам\wr 2ch\wr Псевдопыль\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\860230\хлам\wr 2ch\wr Псевдопыль (Искры во тьме)\wr-stardust-visualiser\xlam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -659,28 +659,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -696,11 +696,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="270287040"/>
-        <c:axId val="270289784"/>
+        <c:axId val="323129416"/>
+        <c:axId val="320933720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="270287040"/>
+        <c:axId val="323129416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,7 +743,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270289784"/>
+        <c:crossAx val="320933720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -751,7 +751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270289784"/>
+        <c:axId val="320933720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,7 +802,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270287040"/>
+        <c:crossAx val="323129416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1930,11 +1930,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="399142976"/>
-        <c:axId val="399147680"/>
+        <c:axId val="324198888"/>
+        <c:axId val="324200456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="399142976"/>
+        <c:axId val="324198888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1976,7 +1976,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399147680"/>
+        <c:crossAx val="324200456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1984,7 +1984,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399147680"/>
+        <c:axId val="324200456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2035,7 +2035,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399142976"/>
+        <c:crossAx val="324198888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2301,11 +2301,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="399144544"/>
-        <c:axId val="399146896"/>
+        <c:axId val="324199280"/>
+        <c:axId val="324201240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="399144544"/>
+        <c:axId val="324199280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1850"/>
@@ -2363,12 +2363,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399146896"/>
+        <c:crossAx val="324201240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="399146896"/>
+        <c:axId val="324201240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,7 +2425,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399144544"/>
+        <c:crossAx val="324199280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2639,11 +2639,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="401806176"/>
-        <c:axId val="401797552"/>
+        <c:axId val="409592136"/>
+        <c:axId val="409590568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="401806176"/>
+        <c:axId val="409592136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1840"/>
@@ -2701,12 +2701,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401797552"/>
+        <c:crossAx val="409590568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="401797552"/>
+        <c:axId val="409590568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2763,7 +2763,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401806176"/>
+        <c:crossAx val="409592136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2924,46 +2924,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3003,46 +3003,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>49</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>50</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>55</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3082,7 +3082,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
@@ -3103,7 +3103,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>28</c:v>
@@ -3115,13 +3115,13 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3164,46 +3164,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3219,11 +3219,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="270287432"/>
-        <c:axId val="270287824"/>
+        <c:axId val="320933328"/>
+        <c:axId val="320938816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="270287432"/>
+        <c:axId val="320933328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3265,7 +3265,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270287824"/>
+        <c:crossAx val="320938816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3273,7 +3273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270287824"/>
+        <c:axId val="320938816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3324,7 +3324,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270287432"/>
+        <c:crossAx val="320933328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3529,7 +3529,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -3550,25 +3550,25 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3620,46 +3620,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3711,10 +3711,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -3732,10 +3732,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5</c:v>
@@ -3744,13 +3744,13 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3808,7 +3808,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3829,25 +3829,25 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3864,11 +3864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="270288216"/>
-        <c:axId val="270288608"/>
+        <c:axId val="320935288"/>
+        <c:axId val="320936072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="270288216"/>
+        <c:axId val="320935288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3910,7 +3910,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270288608"/>
+        <c:crossAx val="320936072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3918,7 +3918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270288608"/>
+        <c:axId val="320936072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3969,7 +3969,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270288216"/>
+        <c:crossAx val="320935288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4184,46 +4184,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0909090909090908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>1.7272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1538461538461537</c:v>
+                  <c:v>2.3846153846153846</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8888888888888888</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2307692307692308</c:v>
+                  <c:v>2.9230769230769229</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7333333333333334</c:v>
+                  <c:v>4.1538461538461542</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1818181818181817</c:v>
+                  <c:v>3.1538461538461537</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.916666666666667</c:v>
+                  <c:v>5.4444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3076923076923075</c:v>
+                  <c:v>4.4285714285714288</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1</c:v>
+                  <c:v>5.2307692307692308</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.3571428571428568</c:v>
+                  <c:v>5.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4329,11 +4329,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="270290568"/>
-        <c:axId val="270291352"/>
+        <c:axId val="320937640"/>
+        <c:axId val="322177296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="270290568"/>
+        <c:axId val="320937640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4375,7 +4375,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270291352"/>
+        <c:crossAx val="322177296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4383,7 +4383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270291352"/>
+        <c:axId val="322177296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4434,7 +4434,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270290568"/>
+        <c:crossAx val="320937640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4654,40 +4654,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>120</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>133</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>153</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5011,11 +5011,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="270286256"/>
-        <c:axId val="270289392"/>
+        <c:axId val="324197320"/>
+        <c:axId val="324201632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="270286256"/>
+        <c:axId val="324197320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5057,7 +5057,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270289392"/>
+        <c:crossAx val="324201632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5065,7 +5065,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270289392"/>
+        <c:axId val="324201632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5116,7 +5116,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270286256"/>
+        <c:crossAx val="324197320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5569,11 +5569,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="399143760"/>
-        <c:axId val="399147288"/>
+        <c:axId val="324195360"/>
+        <c:axId val="324196928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="399143760"/>
+        <c:axId val="324195360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5615,7 +5615,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399147288"/>
+        <c:crossAx val="324196928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5623,7 +5623,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399147288"/>
+        <c:axId val="324196928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5674,7 +5674,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399143760"/>
+        <c:crossAx val="324195360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5876,43 +5876,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.25</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>3.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8</c:v>
+                  <c:v>4.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>7.333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5964,46 +5964,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.75</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.75</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6055,46 +6055,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>2.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4285714285714284</c:v>
+                  <c:v>4.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.2</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8</c:v>
+                  <c:v>3.6666666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6146,40 +6146,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1428571428571428</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6331,46 +6331,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.72916666666666663</c:v>
+                  <c:v>1.9375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.25</c:v>
+                  <c:v>1.8541666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8416666666666668</c:v>
+                  <c:v>2.7166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3958333333333339</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4916666666666663</c:v>
+                  <c:v>2.9833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6458333333333335</c:v>
+                  <c:v>4.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.166666666666667</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.3125</c:v>
+                  <c:v>6.375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.458333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.5750000000000002</c:v>
+                  <c:v>4.291666666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.7428571428571429</c:v>
+                  <c:v>6.1583333333333332</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.0666666666666664</c:v>
+                  <c:v>6.3444444444444441</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2750000000000004</c:v>
+                  <c:v>3.6333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6387,11 +6387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="399148464"/>
-        <c:axId val="399141408"/>
+        <c:axId val="324198104"/>
+        <c:axId val="324194968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="399148464"/>
+        <c:axId val="324198104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6433,7 +6433,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399141408"/>
+        <c:crossAx val="324194968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6441,7 +6441,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399141408"/>
+        <c:axId val="324194968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6492,7 +6492,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399148464"/>
+        <c:crossAx val="324198104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6686,16 +6686,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6832,11 +6832,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="399141800"/>
-        <c:axId val="399142192"/>
+        <c:axId val="324195752"/>
+        <c:axId val="324200064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="399141800"/>
+        <c:axId val="324195752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6878,7 +6878,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399142192"/>
+        <c:crossAx val="324200064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6886,7 +6886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399142192"/>
+        <c:axId val="324200064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6937,7 +6937,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399141800"/>
+        <c:crossAx val="324195752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8753,11 +8753,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="399146504"/>
-        <c:axId val="399142584"/>
+        <c:axId val="324194576"/>
+        <c:axId val="324197712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="399146504"/>
+        <c:axId val="324194576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8799,7 +8799,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399142584"/>
+        <c:crossAx val="324197712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8807,7 +8807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399142584"/>
+        <c:axId val="324197712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8872,7 +8872,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399146504"/>
+        <c:crossAx val="324194576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16198,8 +16198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO68"/>
   <sheetViews>
-    <sheetView topLeftCell="J34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16352,13 +16352,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -16373,7 +16373,7 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -16388,34 +16388,34 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3" s="2">
         <f>B3+C3+D3+E3</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T3" s="1">
         <f>SUM(F3:I3)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U3" s="3">
         <f>SUM(J3:M3)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V3" s="8">
         <f>SUM(N3:Q3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W3">
         <f>S3+T3+U3+V3</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X16" si="0">G39/W3</f>
-        <v>0.76470588235294112</v>
+        <v>1.2</v>
       </c>
       <c r="Y3">
         <v>6</v>
@@ -16434,23 +16434,23 @@
       </c>
       <c r="AC3">
         <f>S3</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD3">
         <f>T3</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE3">
         <f>U3</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF3">
         <f>V3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG3">
         <f>W3</f>
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -16489,7 +16489,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -16520,7 +16520,7 @@
       </c>
       <c r="U4" s="3">
         <f t="shared" ref="U4:U16" si="4">SUM(J4:M4)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" s="8">
         <f t="shared" ref="V4:V16" si="5">SUM(N4:Q4)</f>
@@ -16528,11 +16528,11 @@
       </c>
       <c r="W4">
         <f t="shared" ref="W4:W16" si="6">S4+T4+U4+V4</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.0909090909090908</v>
       </c>
       <c r="Y4" s="9">
         <f t="shared" ref="Y4:Y16" si="7">Y3*(1-$AA$1)*$Y$1+$AC$1</f>
@@ -16552,11 +16552,11 @@
       </c>
       <c r="AC4">
         <f t="shared" ref="AC4:AC16" si="9">S4+AC3</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AD4">
         <f t="shared" ref="AD4:AD16" si="10">T4+AD3</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE4">
         <f t="shared" ref="AE4:AE16" si="11">U4+AE3</f>
@@ -16564,11 +16564,11 @@
       </c>
       <c r="AF4">
         <f t="shared" ref="AF4:AF16" si="12">V4+AF3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG4">
         <f t="shared" ref="AG4:AG16" si="13">W4+AG3</f>
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -16592,7 +16592,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -16634,7 +16634,7 @@
       </c>
       <c r="T5" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U5" s="3">
         <f t="shared" si="4"/>
@@ -16646,11 +16646,11 @@
       </c>
       <c r="W5">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>1.7272727272727273</v>
       </c>
       <c r="Y5" s="9">
         <f t="shared" si="7"/>
@@ -16670,11 +16670,11 @@
       </c>
       <c r="AC5">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AD5">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE5">
         <f t="shared" si="11"/>
@@ -16682,11 +16682,11 @@
       </c>
       <c r="AF5">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG5">
         <f t="shared" si="13"/>
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -16768,7 +16768,7 @@
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>2.1538461538461537</v>
+        <v>2.3846153846153846</v>
       </c>
       <c r="Y6" s="9">
         <f t="shared" si="7"/>
@@ -16788,11 +16788,11 @@
       </c>
       <c r="AC6">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AD6">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE6">
         <f t="shared" si="11"/>
@@ -16800,11 +16800,11 @@
       </c>
       <c r="AF6">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6">
         <f t="shared" si="13"/>
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -16828,7 +16828,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -16870,7 +16870,7 @@
       </c>
       <c r="T7" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U7" s="3">
         <f t="shared" si="4"/>
@@ -16882,11 +16882,11 @@
       </c>
       <c r="W7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>3.8888888888888888</v>
+        <v>3.3</v>
       </c>
       <c r="Y7" s="9">
         <f t="shared" si="7"/>
@@ -16906,11 +16906,11 @@
       </c>
       <c r="AC7">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD7">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE7">
         <f t="shared" si="11"/>
@@ -16918,11 +16918,11 @@
       </c>
       <c r="AF7">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG7">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -17004,7 +17004,7 @@
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>3.2307692307692308</v>
+        <v>2.9230769230769229</v>
       </c>
       <c r="Y8" s="9">
         <f t="shared" si="7"/>
@@ -17024,11 +17024,11 @@
       </c>
       <c r="AC8">
         <f t="shared" si="9"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AD8">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE8">
         <f t="shared" si="11"/>
@@ -17036,11 +17036,11 @@
       </c>
       <c r="AF8">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG8">
         <f t="shared" si="13"/>
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -17064,7 +17064,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -17106,7 +17106,7 @@
       </c>
       <c r="T9" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U9" s="3">
         <f t="shared" si="4"/>
@@ -17118,11 +17118,11 @@
       </c>
       <c r="W9">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>2.7333333333333334</v>
+        <v>4.1538461538461542</v>
       </c>
       <c r="Y9" s="9">
         <f t="shared" si="7"/>
@@ -17142,11 +17142,11 @@
       </c>
       <c r="AC9">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AD9">
         <f t="shared" si="10"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE9">
         <f t="shared" si="11"/>
@@ -17154,11 +17154,11 @@
       </c>
       <c r="AF9">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG9">
         <f t="shared" si="13"/>
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -17176,19 +17176,19 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -17197,13 +17197,13 @@
         <v>0</v>
       </c>
       <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
         <v>1</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -17220,27 +17220,27 @@
       </c>
       <c r="S10" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U10" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V10" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W10">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X10">
         <f t="shared" si="0"/>
-        <v>4.1818181818181817</v>
+        <v>3.1538461538461537</v>
       </c>
       <c r="Y10" s="9">
         <f t="shared" si="7"/>
@@ -17260,23 +17260,23 @@
       </c>
       <c r="AC10">
         <f t="shared" si="9"/>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AD10">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AE10">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF10">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG10">
         <f t="shared" si="13"/>
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -17300,13 +17300,13 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17315,10 +17315,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -17342,11 +17342,11 @@
       </c>
       <c r="T11" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U11" s="3">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V11" s="8">
         <f t="shared" si="5"/>
@@ -17354,11 +17354,11 @@
       </c>
       <c r="W11">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X11">
         <f t="shared" si="0"/>
-        <v>8.1999999999999993</v>
+        <v>6</v>
       </c>
       <c r="Y11" s="9">
         <f t="shared" si="7"/>
@@ -17378,11 +17378,11 @@
       </c>
       <c r="AC11">
         <f t="shared" si="9"/>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AD11">
         <f t="shared" si="10"/>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AE11">
         <f t="shared" si="11"/>
@@ -17390,11 +17390,11 @@
       </c>
       <c r="AF11">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG11">
         <f t="shared" si="13"/>
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
@@ -17406,7 +17406,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -17442,7 +17442,7 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -17456,7 +17456,7 @@
       </c>
       <c r="S12" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" si="3"/>
@@ -17468,15 +17468,15 @@
       </c>
       <c r="V12" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W12">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X12">
         <f t="shared" si="0"/>
-        <v>4.916666666666667</v>
+        <v>5.4444444444444446</v>
       </c>
       <c r="Y12" s="9">
         <f t="shared" si="7"/>
@@ -17496,11 +17496,11 @@
       </c>
       <c r="AC12">
         <f t="shared" si="9"/>
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="AD12">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AE12">
         <f t="shared" si="11"/>
@@ -17512,7 +17512,7 @@
       </c>
       <c r="AG12">
         <f t="shared" si="13"/>
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -17530,37 +17530,37 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>3</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>1</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -17574,11 +17574,11 @@
       </c>
       <c r="S13" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" si="4"/>
@@ -17586,15 +17586,15 @@
       </c>
       <c r="V13" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W13">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X13">
         <f t="shared" si="0"/>
-        <v>6.3076923076923075</v>
+        <v>4.4285714285714288</v>
       </c>
       <c r="Y13" s="9">
         <f t="shared" si="7"/>
@@ -17614,11 +17614,11 @@
       </c>
       <c r="AC13">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AD13">
         <f t="shared" si="10"/>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE13">
         <f t="shared" si="11"/>
@@ -17626,11 +17626,11 @@
       </c>
       <c r="AF13">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG13">
         <f t="shared" si="13"/>
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
@@ -17645,34 +17645,34 @@
         <v>1</v>
       </c>
       <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>2</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
       <c r="M14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -17681,7 +17681,7 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -17692,27 +17692,27 @@
       </c>
       <c r="S14" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V14" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W14">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="X14">
         <f t="shared" si="0"/>
-        <v>3.1</v>
+        <v>5.2307692307692308</v>
       </c>
       <c r="Y14" s="9">
         <f t="shared" si="7"/>
@@ -17732,23 +17732,23 @@
       </c>
       <c r="AC14">
         <f t="shared" si="9"/>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AD14">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AE14">
         <f t="shared" si="11"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF14">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG14">
         <f t="shared" si="13"/>
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
@@ -17763,43 +17763,43 @@
         <v>1</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>3</v>
       </c>
-      <c r="E15">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>1</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <v>3</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -17810,15 +17810,15 @@
       </c>
       <c r="S15" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T15" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U15" s="3">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="5"/>
@@ -17826,11 +17826,11 @@
       </c>
       <c r="W15">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="X15">
         <f t="shared" si="0"/>
-        <v>5.3571428571428568</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="Y15" s="9">
         <f t="shared" si="7"/>
@@ -17850,11 +17850,11 @@
       </c>
       <c r="AC15">
         <f t="shared" si="9"/>
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AD15">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE15">
         <f t="shared" si="11"/>
@@ -17862,11 +17862,11 @@
       </c>
       <c r="AF15">
         <f t="shared" si="12"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG15">
         <f t="shared" si="13"/>
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
@@ -17878,10 +17878,10 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -17890,31 +17890,31 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -17928,27 +17928,27 @@
       </c>
       <c r="S16" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U16" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W16">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="X16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Y16" s="9">
         <f t="shared" si="7"/>
@@ -17968,23 +17968,23 @@
       </c>
       <c r="AC16">
         <f t="shared" si="9"/>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AD16">
         <f t="shared" si="10"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AE16">
         <f t="shared" si="11"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF16">
         <f t="shared" si="12"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG16">
         <f t="shared" si="13"/>
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
@@ -18006,19 +18006,19 @@
       <c r="Q17" s="6"/>
       <c r="S17" s="4">
         <f>SUM(S3:S16)</f>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T17">
         <f t="shared" ref="T17:V17" si="17">SUM(T3:T16)</f>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U17">
         <f t="shared" si="17"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V17">
         <f t="shared" si="17"/>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
@@ -18393,20 +18393,20 @@
         <v>1</v>
       </c>
       <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
         <v>1</v>
       </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39">
+      <c r="F39">
         <v>5</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
       </c>
       <c r="G39">
         <f>SUM(C39:F39)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W39">
         <v>12</v>
@@ -18460,17 +18460,17 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40">
         <f t="shared" ref="G40:G52" si="23">SUM(C40:F40)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W40">
         <v>13</v>
@@ -18521,20 +18521,20 @@
         <v>3</v>
       </c>
       <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="F41">
         <v>6</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>8</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
       </c>
       <c r="G41">
         <f t="shared" si="23"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W41">
         <v>15</v>
@@ -18586,20 +18586,20 @@
         <v>4</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D42">
         <v>11</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G42">
         <f t="shared" si="23"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W42">
         <v>19</v>
@@ -18633,6 +18633,7 @@
         <v>5</v>
       </c>
       <c r="AI42">
+        <f>$AO$64</f>
         <v>25</v>
       </c>
       <c r="AJ42">
@@ -18649,20 +18650,20 @@
         <v>5</v>
       </c>
       <c r="C43">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E43">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F43">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G43">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="W43">
         <v>13</v>
@@ -18710,20 +18711,20 @@
         <v>6</v>
       </c>
       <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
         <v>13</v>
       </c>
-      <c r="D44">
-        <v>7</v>
-      </c>
-      <c r="E44">
+      <c r="F44">
         <v>9</v>
-      </c>
-      <c r="F44">
-        <v>13</v>
       </c>
       <c r="G44">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W44">
         <v>20</v>
@@ -18770,20 +18771,20 @@
         <v>7</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D45">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E45">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G45">
         <f t="shared" si="23"/>
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="W45">
         <v>24</v>
@@ -18822,20 +18823,20 @@
         <v>8</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E46">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F46">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G46">
         <f t="shared" si="23"/>
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W46">
         <v>21</v>
@@ -18874,20 +18875,20 @@
         <v>9</v>
       </c>
       <c r="C47">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D47">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F47">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G47">
         <f t="shared" si="23"/>
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="W47">
         <v>32</v>
@@ -18929,17 +18930,17 @@
         <v>16</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F48">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G48">
         <f t="shared" si="23"/>
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="W48">
         <v>22</v>
@@ -18978,20 +18979,20 @@
         <v>11</v>
       </c>
       <c r="C49">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E49">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F49">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G49">
         <f t="shared" si="23"/>
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="W49">
         <v>33</v>
@@ -19030,20 +19031,20 @@
         <v>12</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E50">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F50">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G50">
         <f t="shared" si="23"/>
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="W50">
         <v>0</v>
@@ -19082,20 +19083,20 @@
         <v>13</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D51">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E51">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G51">
         <f t="shared" si="23"/>
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.25">
@@ -19107,20 +19108,20 @@
         <v>14</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G52">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
@@ -19154,23 +19155,23 @@
       </c>
       <c r="C55">
         <f>C39/(B3+F3+J3+N3)</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D55">
         <f t="shared" ref="D55:F55" si="25">D39/(C3+G3+K3+O3)</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F55">
         <f t="shared" si="25"/>
-        <v>0.75</v>
+        <v>5</v>
       </c>
       <c r="G55">
         <f>SUM(C55:F55)/4</f>
-        <v>0.72916666666666663</v>
+        <v>1.9375</v>
       </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.25">
@@ -19184,19 +19185,19 @@
       </c>
       <c r="D56">
         <f t="shared" ref="D56:D68" si="27">D40/(C4+G4+K4+O4)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <f t="shared" ref="E56:E68" si="28">E40/(D4+H4+L4+P4)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F56">
         <f t="shared" ref="F56:F68" si="29">F40/(E4+I4+M4+Q4)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <f t="shared" ref="G56:G66" si="30">SUM(C56:F56)/4</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.25">
@@ -19206,23 +19207,23 @@
       </c>
       <c r="C57">
         <f t="shared" si="26"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E57">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="F57">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G57">
         <f t="shared" si="30"/>
-        <v>2.25</v>
+        <v>1.8541666666666665</v>
       </c>
       <c r="S57" t="s">
         <v>42</v>
@@ -19235,7 +19236,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="26"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D58">
         <f t="shared" si="27"/>
@@ -19243,15 +19244,15 @@
       </c>
       <c r="E58">
         <f t="shared" si="28"/>
-        <v>1.6666666666666667</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="F58">
         <f t="shared" si="29"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G58">
         <f t="shared" si="30"/>
-        <v>2.8416666666666668</v>
+        <v>2.7166666666666668</v>
       </c>
       <c r="S58" t="s">
         <v>39</v>
@@ -19276,23 +19277,23 @@
       </c>
       <c r="C59">
         <f t="shared" si="26"/>
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="D59">
         <f t="shared" si="27"/>
-        <v>3.3333333333333335</v>
+        <v>3.5</v>
       </c>
       <c r="E59">
         <f t="shared" si="28"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F59">
         <f t="shared" si="29"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G59">
         <f t="shared" si="30"/>
-        <v>5.3958333333333339</v>
+        <v>3</v>
       </c>
       <c r="S59" t="s">
         <v>2</v>
@@ -19353,23 +19354,23 @@
       </c>
       <c r="C60">
         <f t="shared" si="26"/>
-        <v>4.333333333333333</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="D60">
         <f t="shared" si="27"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E60">
         <f t="shared" si="28"/>
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="F60">
         <f t="shared" si="29"/>
-        <v>4.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="G60">
         <f t="shared" si="30"/>
-        <v>3.4916666666666663</v>
+        <v>2.9833333333333334</v>
       </c>
       <c r="R60" t="s">
         <v>34</v>
@@ -19447,23 +19448,23 @@
       </c>
       <c r="C61">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61">
         <f t="shared" si="27"/>
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="E61">
         <f t="shared" si="28"/>
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="F61">
         <f t="shared" si="29"/>
-        <v>1.3333333333333333</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="G61">
         <f t="shared" si="30"/>
-        <v>2.6458333333333335</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="R61" t="s">
         <v>35</v>
@@ -19520,9 +19521,12 @@
         <f>SUM(AG61:AI61)</f>
         <v>21</v>
       </c>
+      <c r="AN61">
+        <v>25</v>
+      </c>
       <c r="AO61">
-        <f>SUM(AL61:AN61)</f>
-        <v>0</v>
+        <f t="shared" ref="AO61:AO62" si="32">SUM(AL61:AN61)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
@@ -19532,23 +19536,23 @@
       </c>
       <c r="C62">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="D62">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E62">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="F62">
         <f t="shared" si="29"/>
-        <v>4.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="G62">
         <f t="shared" si="30"/>
-        <v>4.166666666666667</v>
+        <v>3.125</v>
       </c>
       <c r="R62" t="s">
         <v>37</v>
@@ -19563,7 +19567,7 @@
         <v>4</v>
       </c>
       <c r="V62">
-        <f t="shared" ref="V62:V63" si="32">SUM(S62:U62)</f>
+        <f t="shared" ref="V62:V63" si="33">SUM(S62:U62)</f>
         <v>11</v>
       </c>
       <c r="W62">
@@ -19576,7 +19580,7 @@
         <v>4</v>
       </c>
       <c r="Z62">
-        <f t="shared" ref="Z62:Z63" si="33">SUM(W62:Y62)</f>
+        <f t="shared" ref="Z62:Z63" si="34">SUM(W62:Y62)</f>
         <v>14</v>
       </c>
       <c r="AB62">
@@ -19589,7 +19593,7 @@
         <v>8</v>
       </c>
       <c r="AE62">
-        <f t="shared" ref="AE62:AE63" si="34">SUM(AB62:AD62)</f>
+        <f t="shared" ref="AE62:AE63" si="35">SUM(AB62:AD62)</f>
         <v>19</v>
       </c>
       <c r="AG62">
@@ -19602,12 +19606,15 @@
         <v>8</v>
       </c>
       <c r="AJ62">
-        <f t="shared" ref="AJ62" si="35">SUM(AG62:AI62)</f>
+        <f t="shared" ref="AJ62" si="36">SUM(AG62:AI62)</f>
         <v>21</v>
       </c>
+      <c r="AN62">
+        <v>25</v>
+      </c>
       <c r="AO62">
-        <f t="shared" ref="AO62" si="36">SUM(AL62:AN62)</f>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.25">
@@ -19617,23 +19624,23 @@
       </c>
       <c r="C63">
         <f t="shared" si="26"/>
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="D63">
         <f t="shared" si="27"/>
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="E63">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F63">
         <f t="shared" si="29"/>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G63">
         <f t="shared" si="30"/>
-        <v>11.3125</v>
+        <v>6.375</v>
       </c>
       <c r="R63" t="s">
         <v>38</v>
@@ -19648,7 +19655,7 @@
         <v>3</v>
       </c>
       <c r="V63">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="W63">
@@ -19661,7 +19668,7 @@
         <v>5</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>14</v>
       </c>
       <c r="AB63">
@@ -19674,7 +19681,7 @@
         <v>8</v>
       </c>
       <c r="AE63">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>19</v>
       </c>
       <c r="AF63" t="s">
@@ -19690,21 +19697,21 @@
         <f t="shared" si="26"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="e">
         <f t="shared" si="27"/>
-        <v>5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E64">
         <f t="shared" si="28"/>
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F64">
         <f t="shared" si="29"/>
-        <v>9</v>
-      </c>
-      <c r="G64">
+        <v>3.5</v>
+      </c>
+      <c r="G64" t="e">
         <f t="shared" si="30"/>
-        <v>5.458333333333333</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V64">
         <f>SUM(V60:V63)/4</f>
@@ -19724,7 +19731,7 @@
       </c>
       <c r="AO64">
         <f>SUM(AO60:AO62)/3</f>
-        <v>8.3333333333333339</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="2:26" x14ac:dyDescent="0.25">
@@ -19734,7 +19741,7 @@
       </c>
       <c r="C65">
         <f t="shared" si="26"/>
-        <v>3.8</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D65">
         <f t="shared" si="27"/>
@@ -19742,15 +19749,15 @@
       </c>
       <c r="E65">
         <f t="shared" si="28"/>
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="F65">
         <f t="shared" si="29"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G65">
         <f t="shared" si="30"/>
-        <v>7.5750000000000002</v>
+        <v>4.291666666666667</v>
       </c>
     </row>
     <row r="66" spans="2:26" x14ac:dyDescent="0.25">
@@ -19760,23 +19767,23 @@
       </c>
       <c r="C66">
         <f>C50/(B14+F14+J14+N14)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D66">
         <f t="shared" si="27"/>
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="E66">
         <f t="shared" si="28"/>
-        <v>3.4285714285714284</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="F66">
         <f t="shared" si="29"/>
-        <v>2.1428571428571428</v>
+        <v>4</v>
       </c>
       <c r="G66">
         <f t="shared" si="30"/>
-        <v>3.7428571428571429</v>
+        <v>6.1583333333333332</v>
       </c>
     </row>
     <row r="67" spans="2:26" x14ac:dyDescent="0.25">
@@ -19786,23 +19793,23 @@
       </c>
       <c r="C67">
         <f>C51/(B15+F15+J15+N15)</f>
-        <v>5</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D67">
         <f t="shared" si="27"/>
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="E67">
         <f t="shared" si="28"/>
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="F67">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="G67">
         <f>SUM(C67:E67)/3</f>
-        <v>6.0666666666666664</v>
+        <v>6.3444444444444441</v>
       </c>
     </row>
     <row r="68" spans="2:26" x14ac:dyDescent="0.25">
@@ -19816,19 +19823,19 @@
       </c>
       <c r="D68">
         <f t="shared" si="27"/>
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="E68">
         <f t="shared" si="28"/>
-        <v>5.8</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="F68">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="G68">
         <f>SUM(D68:E68)/2</f>
-        <v>5.2750000000000004</v>
+        <v>3.6333333333333333</v>
       </c>
       <c r="R68" t="s">
         <v>36</v>
@@ -19879,7 +19886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -21645,7 +21652,7 @@
         <v>18620.611799999999</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:C132" si="4">C68+D69</f>
+        <f t="shared" ref="C69:C74" si="4">C68+D69</f>
         <v>265.83829999999995</v>
       </c>
       <c r="D69">
@@ -21798,7 +21805,7 @@
         <v>74</v>
       </c>
       <c r="D75">
-        <f t="shared" ref="D68:D131" si="6">C75/1000/3660/24</f>
+        <f t="shared" ref="D75:D131" si="6">C75/1000/3660/24</f>
         <v>0</v>
       </c>
       <c r="E75">
@@ -23358,7 +23365,7 @@
         <v>152</v>
       </c>
       <c r="C153">
-        <f t="shared" ref="C118:C181" si="10">(B153-B152)</f>
+        <f t="shared" ref="C153:C181" si="10">(B153-B152)</f>
         <v>0</v>
       </c>
       <c r="D153">
@@ -26291,7 +26298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>

--- a/xlam/count_around.xlsx
+++ b/xlam/count_around.xlsx
@@ -668,19 +668,19 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2933,10 +2933,10 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>17</c:v>
@@ -2945,25 +2945,25 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3018,31 +3018,31 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3094,31 +3094,31 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>48</c:v>
@@ -3176,7 +3176,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
@@ -3191,19 +3191,19 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3538,37 +3538,37 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3635,7 +3635,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4</c:v>
@@ -3644,22 +3644,22 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3723,34 +3723,34 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3820,10 +3820,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -3835,19 +3835,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4184,46 +4184,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.2</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0909090909090908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7272727272727273</c:v>
+                  <c:v>1.8181818181818181</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3846153846153846</c:v>
+                  <c:v>2.2142857142857144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3</c:v>
+                  <c:v>3.1666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9230769230769229</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1538461538461542</c:v>
+                  <c:v>3.8571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1538461538461537</c:v>
+                  <c:v>3.7857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>4.5714285714285712</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4444444444444446</c:v>
+                  <c:v>4.3125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4285714285714288</c:v>
+                  <c:v>4.3499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2307692307692308</c:v>
+                  <c:v>4.7058823529411766</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.166666666666667</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.4</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4663,31 +4663,31 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>101</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>124</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>137</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5836,7 +5836,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Кубов в древе, S'!$C$54</c:f>
+              <c:f>'Кубов в древе, S'!$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5871,10 +5871,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$C$55:$C$67</c:f>
+              <c:f>'Кубов в древе, S'!$C$57:$C$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1.5</c:v>
                 </c:pt>
@@ -5888,7 +5888,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.3333333333333335</c:v>
@@ -5897,7 +5897,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.75</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5</c:v>
@@ -5909,10 +5909,16 @@
                   <c:v>4.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.333333333333333</c:v>
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5924,7 +5930,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Кубов в древе, S'!$D$54</c:f>
+              <c:f>'Кубов в древе, S'!$D$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5959,18 +5965,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$D$55:$D$68</c:f>
+              <c:f>'Кубов в древе, S'!$D$57:$D$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.2000000000000002</c:v>
@@ -5982,7 +5988,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.5</c:v>
@@ -5991,19 +5997,22 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6015,7 +6024,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Кубов в древе, S'!$E$54</c:f>
+              <c:f>'Кубов в древе, S'!$E$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6050,21 +6059,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$E$55:$E$68</c:f>
+              <c:f>'Кубов в древе, S'!$E$57:$E$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.75</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6666666666666665</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
@@ -6079,22 +6088,25 @@
                   <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6106,7 +6118,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Кубов в древе, S'!$F$54</c:f>
+              <c:f>'Кубов в древе, S'!$F$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6141,45 +6153,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$F$55:$F$66</c:f>
+              <c:f>'Кубов в древе, S'!$F$57:$F$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>3.3333333333333335</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
+                  <c:v>4.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6226,10 +6247,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$A$39:$A$52</c:f>
+              <c:f>'Кубов в древе, S'!$A$39:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -6271,6 +6292,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6282,7 +6306,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Кубов в древе, S'!$G$54</c:f>
+              <c:f>'Кубов в древе, S'!$G$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6326,51 +6350,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$G$55:$G$68</c:f>
+              <c:f>'Кубов в древе, S'!$G$57:$G$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.9375</c:v>
+                  <c:v>1.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8541666666666665</c:v>
+                  <c:v>1.8333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7166666666666668</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9833333333333334</c:v>
+                  <c:v>3.0666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>3.875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.125</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.375</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>4.5416666666666661</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7416666666666671</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.291666666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.1583333333333332</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.3444444444444441</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.6333333333333333</c:v>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6695,7 +6722,7 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16196,10 +16223,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO68"/>
+  <dimension ref="A1:AO72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16415,7 +16442,7 @@
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X16" si="0">G39/W3</f>
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="Y3">
         <v>6</v>
@@ -16573,7 +16600,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <f t="shared" ref="A5:A16" si="14">A4+1</f>
+        <f t="shared" ref="A5:A17" si="14">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5">
@@ -16650,7 +16677,7 @@
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>1.7272727272727273</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="Y5" s="9">
         <f t="shared" si="7"/>
@@ -16704,7 +16731,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -16748,7 +16775,7 @@
       </c>
       <c r="S6" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="3"/>
@@ -16764,11 +16791,11 @@
       </c>
       <c r="W6">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>2.3846153846153846</v>
+        <v>2.2142857142857144</v>
       </c>
       <c r="Y6" s="9">
         <f t="shared" si="7"/>
@@ -16788,7 +16815,7 @@
       </c>
       <c r="AC6">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD6">
         <f t="shared" si="10"/>
@@ -16804,7 +16831,7 @@
       </c>
       <c r="AG6">
         <f t="shared" si="13"/>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -16846,7 +16873,7 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -16858,7 +16885,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <f t="shared" si="15"/>
@@ -16874,19 +16901,19 @@
       </c>
       <c r="U7" s="3">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V7" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>3.3</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="Y7" s="9">
         <f t="shared" si="7"/>
@@ -16906,7 +16933,7 @@
       </c>
       <c r="AC7">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD7">
         <f t="shared" si="10"/>
@@ -16914,15 +16941,15 @@
       </c>
       <c r="AE7">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF7">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG7">
         <f t="shared" si="13"/>
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -16940,7 +16967,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -16952,7 +16979,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -16976,7 +17003,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <f t="shared" si="15"/>
@@ -16984,11 +17011,11 @@
       </c>
       <c r="S8" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" si="4"/>
@@ -16996,7 +17023,7 @@
       </c>
       <c r="V8" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <f t="shared" si="6"/>
@@ -17004,7 +17031,7 @@
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>2.9230769230769229</v>
+        <v>3</v>
       </c>
       <c r="Y8" s="9">
         <f t="shared" si="7"/>
@@ -17028,11 +17055,11 @@
       </c>
       <c r="AD8">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE8">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF8">
         <f t="shared" si="12"/>
@@ -17040,7 +17067,7 @@
       </c>
       <c r="AG8">
         <f t="shared" si="13"/>
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -17082,7 +17109,7 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -17110,7 +17137,7 @@
       </c>
       <c r="U9" s="3">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V9" s="8">
         <f t="shared" si="5"/>
@@ -17118,11 +17145,11 @@
       </c>
       <c r="W9">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>4.1538461538461542</v>
+        <v>3.8571428571428572</v>
       </c>
       <c r="Y9" s="9">
         <f t="shared" si="7"/>
@@ -17146,11 +17173,11 @@
       </c>
       <c r="AD9">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AE9">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF9">
         <f t="shared" si="12"/>
@@ -17158,7 +17185,7 @@
       </c>
       <c r="AG9">
         <f t="shared" si="13"/>
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -17176,7 +17203,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -17200,7 +17227,7 @@
         <v>2</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -17220,7 +17247,7 @@
       </c>
       <c r="S10" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="3"/>
@@ -17228,7 +17255,7 @@
       </c>
       <c r="U10" s="3">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V10" s="8">
         <f t="shared" si="5"/>
@@ -17236,11 +17263,11 @@
       </c>
       <c r="W10">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X10">
         <f t="shared" si="0"/>
-        <v>3.1538461538461537</v>
+        <v>3.7857142857142856</v>
       </c>
       <c r="Y10" s="9">
         <f t="shared" si="7"/>
@@ -17260,15 +17287,15 @@
       </c>
       <c r="AC10">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AD10">
         <f t="shared" si="10"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AE10">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF10">
         <f t="shared" si="12"/>
@@ -17276,7 +17303,7 @@
       </c>
       <c r="AG10">
         <f t="shared" si="13"/>
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -17294,7 +17321,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17306,7 +17333,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17338,11 +17365,11 @@
       </c>
       <c r="S11" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U11" s="3">
         <f t="shared" si="4"/>
@@ -17358,7 +17385,7 @@
       </c>
       <c r="X11">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4.5714285714285712</v>
       </c>
       <c r="Y11" s="9">
         <f t="shared" si="7"/>
@@ -17378,15 +17405,15 @@
       </c>
       <c r="AC11">
         <f t="shared" si="9"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD11">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE11">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF11">
         <f t="shared" si="12"/>
@@ -17394,7 +17421,7 @@
       </c>
       <c r="AG11">
         <f t="shared" si="13"/>
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
@@ -17406,13 +17433,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -17436,13 +17463,13 @@
         <v>2</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -17456,7 +17483,7 @@
       </c>
       <c r="S12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" si="3"/>
@@ -17464,19 +17491,19 @@
       </c>
       <c r="U12" s="3">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W12">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="X12">
         <f t="shared" si="0"/>
-        <v>5.4444444444444446</v>
+        <v>4.3125</v>
       </c>
       <c r="Y12" s="9">
         <f t="shared" si="7"/>
@@ -17496,23 +17523,23 @@
       </c>
       <c r="AC12">
         <f t="shared" si="9"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AD12">
         <f t="shared" si="10"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE12">
         <f t="shared" si="11"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AF12">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG12">
         <f t="shared" si="13"/>
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -17530,37 +17557,37 @@
         <v>1</v>
       </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <v>3</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>2</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -17574,27 +17601,27 @@
       </c>
       <c r="S13" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V13" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W13">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="X13">
         <f t="shared" si="0"/>
-        <v>4.4285714285714288</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="Y13" s="9">
         <f t="shared" si="7"/>
@@ -17614,23 +17641,23 @@
       </c>
       <c r="AC13">
         <f t="shared" si="9"/>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AD13">
         <f t="shared" si="10"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AE13">
         <f t="shared" si="11"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AF13">
         <f t="shared" si="12"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG13">
         <f t="shared" si="13"/>
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
@@ -17648,25 +17675,25 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -17692,15 +17719,15 @@
       </c>
       <c r="S14" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V14" s="8">
         <f t="shared" si="5"/>
@@ -17708,11 +17735,11 @@
       </c>
       <c r="W14">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X14">
         <f t="shared" si="0"/>
-        <v>5.2307692307692308</v>
+        <v>4.7058823529411766</v>
       </c>
       <c r="Y14" s="9">
         <f t="shared" si="7"/>
@@ -17732,23 +17759,23 @@
       </c>
       <c r="AC14">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="AD14">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AE14">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AF14">
         <f t="shared" si="12"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG14">
         <f t="shared" si="13"/>
-        <v>137</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
@@ -17760,43 +17787,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
       </c>
       <c r="L15">
         <v>2</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>3</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -17810,27 +17837,27 @@
       </c>
       <c r="S15" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T15" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U15" s="3">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W15">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X15">
         <f t="shared" si="0"/>
-        <v>5.166666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="Y15" s="9">
         <f t="shared" si="7"/>
@@ -17850,23 +17877,23 @@
       </c>
       <c r="AC15">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AD15">
         <f t="shared" si="10"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AE15">
         <f t="shared" si="11"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AF15">
         <f t="shared" si="12"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG15">
         <f t="shared" si="13"/>
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
@@ -17878,43 +17905,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>3</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
       </c>
       <c r="H16">
         <v>4</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>1</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>2</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -17928,27 +17955,27 @@
       </c>
       <c r="S16" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U16" s="3">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="X16">
         <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Y16" s="9">
         <f t="shared" si="7"/>
@@ -17968,11 +17995,11 @@
       </c>
       <c r="AC16">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="AD16">
         <f t="shared" si="10"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AE16">
         <f t="shared" si="11"/>
@@ -17980,37 +18007,73 @@
       </c>
       <c r="AF16">
         <f t="shared" si="12"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG16">
         <f t="shared" si="13"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <v>2</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
       <c r="S17" s="4">
         <f>SUM(S3:S16)</f>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="T17">
         <f t="shared" ref="T17:V17" si="17">SUM(T3:T16)</f>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="U17">
         <f t="shared" si="17"/>
@@ -18018,37 +18081,25 @@
       </c>
       <c r="V17">
         <f t="shared" si="17"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E18" s="4">
-        <f>SUM(B17:E17)</f>
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4">
-        <f>SUM(F17:I17)</f>
-        <v>0</v>
-      </c>
+      <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="4">
-        <f>SUM(J17:M17)</f>
-        <v>0</v>
-      </c>
+      <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="4">
-        <f>SUM(N17:Q17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -18063,7 +18114,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -18078,7 +18129,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -18093,7 +18144,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -18108,7 +18159,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -18123,7 +18174,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -18138,7 +18189,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -18153,7 +18204,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -18168,7 +18219,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -18183,7 +18234,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -18198,7 +18249,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -18213,7 +18264,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -18228,7 +18279,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -18399,14 +18450,14 @@
         <v>3</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G39">
         <f>SUM(C39:F39)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W39">
         <v>12</v>
@@ -18460,10 +18511,10 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -18524,17 +18575,17 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G41">
         <f t="shared" si="23"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W41">
         <v>15</v>
@@ -18592,10 +18643,10 @@
         <v>11</v>
       </c>
       <c r="E42">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G42">
         <f t="shared" si="23"/>
@@ -18650,7 +18701,7 @@
         <v>5</v>
       </c>
       <c r="C43">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D43">
         <v>14</v>
@@ -18659,11 +18710,11 @@
         <v>3</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G43">
         <f t="shared" si="23"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="W43">
         <v>13</v>
@@ -18720,11 +18771,11 @@
         <v>13</v>
       </c>
       <c r="F44">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G44">
         <f t="shared" si="23"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W44">
         <v>20</v>
@@ -18774,13 +18825,13 @@
         <v>16</v>
       </c>
       <c r="D45">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E45">
         <v>16</v>
       </c>
       <c r="F45">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G45">
         <f t="shared" si="23"/>
@@ -18823,7 +18874,7 @@
         <v>8</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D46">
         <v>14</v>
@@ -18832,11 +18883,11 @@
         <v>17</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G46">
         <f t="shared" si="23"/>
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="W46">
         <v>21</v>
@@ -18881,14 +18932,14 @@
         <v>9</v>
       </c>
       <c r="E47">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F47">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G47">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="W47">
         <v>32</v>
@@ -18930,17 +18981,17 @@
         <v>16</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E48">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F48">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G48">
         <f t="shared" si="23"/>
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="W48">
         <v>22</v>
@@ -18982,17 +19033,17 @@
         <v>25</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E49">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G49">
         <f t="shared" si="23"/>
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="W49">
         <v>33</v>
@@ -19031,20 +19082,20 @@
         <v>12</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D50">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E50">
         <v>29</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G50">
         <f t="shared" si="23"/>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="W50">
         <v>0</v>
@@ -19083,20 +19134,20 @@
         <v>13</v>
       </c>
       <c r="C51">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D51">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E51">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F51">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G51">
         <f t="shared" si="23"/>
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.25">
@@ -19108,122 +19159,79 @@
         <v>14</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E52">
         <v>33</v>
       </c>
       <c r="F52">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G52">
         <f t="shared" si="23"/>
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="C53" s="19" t="s">
+      <c r="A53">
+        <v>6.3</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53:B54" si="25">B52+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="C55" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-    </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+    </row>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
         <v>5</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D56" t="s">
         <v>6</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E56" t="s">
         <v>7</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F56" t="s">
         <v>8</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G56" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B55">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B57">
         <v>1</v>
       </c>
-      <c r="C55">
+      <c r="C57">
         <f>C39/(B3+F3+J3+N3)</f>
         <v>1.5</v>
       </c>
-      <c r="D55">
-        <f t="shared" ref="D55:F55" si="25">D39/(C3+G3+K3+O3)</f>
+      <c r="D57">
+        <f>D39/(C3+G3+K3+O3)</f>
         <v>1</v>
       </c>
-      <c r="E55">
-        <f t="shared" si="25"/>
-        <v>0.25</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="G55">
-        <f>SUM(C55:F55)/4</f>
-        <v>1.9375</v>
-      </c>
-    </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <f>B55+1</f>
-        <v>2</v>
-      </c>
-      <c r="C56">
-        <f t="shared" ref="C56:C65" si="26">C40/(B4+F4+J4+N4)</f>
+      <c r="E57">
+        <f>E39/(D3+H3+L3+P3)</f>
         <v>1</v>
       </c>
-      <c r="D56">
-        <f t="shared" ref="D56:D68" si="27">D40/(C4+G4+K4+O4)</f>
-        <v>2</v>
-      </c>
-      <c r="E56">
-        <f t="shared" ref="E56:E68" si="28">E40/(D4+H4+L4+P4)</f>
-        <v>0.8</v>
-      </c>
-      <c r="F56">
-        <f t="shared" ref="F56:F68" si="29">F40/(E4+I4+M4+Q4)</f>
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <f t="shared" ref="G56:G66" si="30">SUM(C56:F56)/4</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <f t="shared" ref="B57:B67" si="31">B56+1</f>
-        <v>3</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="27"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="28"/>
-        <v>1.75</v>
-      </c>
       <c r="F57">
-        <f t="shared" si="29"/>
-        <v>3</v>
+        <f>F39/(E3+I3+M3+Q3)</f>
+        <v>4</v>
       </c>
       <c r="G57">
-        <f t="shared" si="30"/>
-        <v>1.8541666666666665</v>
+        <f>SUM(C57:F57)/4</f>
+        <v>1.875</v>
       </c>
       <c r="S57" t="s">
         <v>42</v>
@@ -19231,28 +19239,28 @@
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B58">
-        <f t="shared" si="31"/>
-        <v>4</v>
+        <f>B57+1</f>
+        <v>2</v>
       </c>
       <c r="C58">
-        <f t="shared" si="26"/>
-        <v>2</v>
+        <f>C40/(B4+F4+J4+N4)</f>
+        <v>1</v>
       </c>
       <c r="D58">
-        <f t="shared" si="27"/>
-        <v>2.2000000000000002</v>
+        <f>D40/(C4+G4+K4+O4)</f>
+        <v>1.5</v>
       </c>
       <c r="E58">
-        <f t="shared" si="28"/>
-        <v>2.6666666666666665</v>
+        <f>E40/(D4+H4+L4+P4)</f>
+        <v>1</v>
       </c>
       <c r="F58">
-        <f t="shared" si="29"/>
-        <v>4</v>
+        <f>F40/(E4+I4+M4+Q4)</f>
+        <v>1</v>
       </c>
       <c r="G58">
-        <f t="shared" si="30"/>
-        <v>2.7166666666666668</v>
+        <f t="shared" ref="G58:G71" si="26">SUM(C58:F58)/4</f>
+        <v>1.125</v>
       </c>
       <c r="S58" t="s">
         <v>39</v>
@@ -19272,28 +19280,28 @@
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B59">
-        <f t="shared" si="31"/>
-        <v>5</v>
+        <f t="shared" ref="B59:B69" si="27">B58+1</f>
+        <v>3</v>
       </c>
       <c r="C59">
+        <f>C41/(B5+F5+J5+N5)</f>
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <f>D41/(C5+G5+K5+O5)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E59">
+        <f>E41/(D5+H5+L5+P5)</f>
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <f>F41/(E5+I5+M5+Q5)</f>
+        <v>2</v>
+      </c>
+      <c r="G59">
         <f t="shared" si="26"/>
-        <v>3.5</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="27"/>
-        <v>3.5</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="30"/>
-        <v>3</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="S59" t="s">
         <v>2</v>
@@ -19349,28 +19357,28 @@
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B60">
-        <f t="shared" si="31"/>
-        <v>6</v>
+        <f t="shared" si="27"/>
+        <v>4</v>
       </c>
       <c r="C60">
+        <f>C42/(B6+F6+J6+N6)</f>
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <f>D42/(C6+G6+K6+O6)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E60">
+        <f>E42/(D6+H6+L6+P6)</f>
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <f>F42/(E6+I6+M6+Q6)</f>
+        <v>3</v>
+      </c>
+      <c r="G60">
         <f t="shared" si="26"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="27"/>
-        <v>3</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="28"/>
-        <v>2.6</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="29"/>
-        <v>3</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="30"/>
-        <v>2.9833333333333334</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R60" t="s">
         <v>34</v>
@@ -19443,28 +19451,28 @@
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B61">
-        <f t="shared" si="31"/>
-        <v>7</v>
+        <f t="shared" si="27"/>
+        <v>5</v>
       </c>
       <c r="C61">
+        <f>C43/(B7+F7+J7+N7)</f>
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <f>D43/(C7+G7+K7+O7)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E61">
+        <f>E43/(D7+H7+L7+P7)</f>
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <f>F43/(E7+I7+M7+Q7)</f>
+        <v>3</v>
+      </c>
+      <c r="G61">
         <f t="shared" si="26"/>
-        <v>4</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="27"/>
-        <v>6</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="29"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="30"/>
-        <v>4.333333333333333</v>
+        <v>3.125</v>
       </c>
       <c r="R61" t="s">
         <v>35</v>
@@ -19525,34 +19533,34 @@
         <v>25</v>
       </c>
       <c r="AO61">
-        <f t="shared" ref="AO61:AO62" si="32">SUM(AL61:AN61)</f>
+        <f t="shared" ref="AO61:AO62" si="28">SUM(AL61:AN61)</f>
         <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B62">
-        <f t="shared" si="31"/>
-        <v>8</v>
+        <f t="shared" si="27"/>
+        <v>6</v>
       </c>
       <c r="C62">
+        <f>C44/(B8+F8+J8+N8)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D62">
+        <f>D44/(C8+G8+K8+O8)</f>
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <f>E44/(D8+H8+L8+P8)</f>
+        <v>2.6</v>
+      </c>
+      <c r="F62">
+        <f>F44/(E8+I8+M8+Q8)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="G62">
         <f t="shared" si="26"/>
-        <v>1.75</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="27"/>
-        <v>3.5</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="28"/>
-        <v>4.25</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="29"/>
-        <v>3</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="30"/>
-        <v>3.125</v>
+        <v>3.0666666666666669</v>
       </c>
       <c r="R62" t="s">
         <v>37</v>
@@ -19567,7 +19575,7 @@
         <v>4</v>
       </c>
       <c r="V62">
-        <f t="shared" ref="V62:V63" si="33">SUM(S62:U62)</f>
+        <f t="shared" ref="V62:V63" si="29">SUM(S62:U62)</f>
         <v>11</v>
       </c>
       <c r="W62">
@@ -19580,7 +19588,7 @@
         <v>4</v>
       </c>
       <c r="Z62">
-        <f t="shared" ref="Z62:Z63" si="34">SUM(W62:Y62)</f>
+        <f t="shared" ref="Z62:Z63" si="30">SUM(W62:Y62)</f>
         <v>14</v>
       </c>
       <c r="AB62">
@@ -19593,7 +19601,7 @@
         <v>8</v>
       </c>
       <c r="AE62">
-        <f t="shared" ref="AE62:AE63" si="35">SUM(AB62:AD62)</f>
+        <f t="shared" ref="AE62:AE63" si="31">SUM(AB62:AD62)</f>
         <v>19</v>
       </c>
       <c r="AG62">
@@ -19606,41 +19614,41 @@
         <v>8</v>
       </c>
       <c r="AJ62">
-        <f t="shared" ref="AJ62" si="36">SUM(AG62:AI62)</f>
+        <f t="shared" ref="AJ62" si="32">SUM(AG62:AI62)</f>
         <v>21</v>
       </c>
       <c r="AN62">
         <v>25</v>
       </c>
       <c r="AO62">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B63">
-        <f t="shared" si="31"/>
-        <v>9</v>
+        <f t="shared" si="27"/>
+        <v>7</v>
       </c>
       <c r="C63">
+        <f>C45/(B9+F9+J9+N9)</f>
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <f>D45/(C9+G9+K9+O9)</f>
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <f>E45/(D9+H9+L9+P9)</f>
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <f>F45/(E9+I9+M9+Q9)</f>
+        <v>3.5</v>
+      </c>
+      <c r="G63">
         <f t="shared" si="26"/>
-        <v>5</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="27"/>
-        <v>4.5</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="29"/>
-        <v>9</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="30"/>
-        <v>6.375</v>
+        <v>3.875</v>
       </c>
       <c r="R63" t="s">
         <v>38</v>
@@ -19655,7 +19663,7 @@
         <v>3</v>
       </c>
       <c r="V63">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="W63">
@@ -19668,7 +19676,7 @@
         <v>5</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>14</v>
       </c>
       <c r="AB63">
@@ -19681,7 +19689,7 @@
         <v>8</v>
       </c>
       <c r="AE63">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>19</v>
       </c>
       <c r="AF63" t="s">
@@ -19690,28 +19698,28 @@
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B64">
-        <f t="shared" si="31"/>
-        <v>10</v>
+        <f t="shared" si="27"/>
+        <v>8</v>
       </c>
       <c r="C64">
+        <f>C46/(B10+F10+J10+N10)</f>
+        <v>3.75</v>
+      </c>
+      <c r="D64">
+        <f>D46/(C10+G10+K10+O10)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E64">
+        <f>E46/(D10+H10+L10+P10)</f>
+        <v>4.25</v>
+      </c>
+      <c r="F64">
+        <f>F46/(E10+I10+M10+Q10)</f>
+        <v>3.5</v>
+      </c>
+      <c r="G64">
         <f t="shared" si="26"/>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="D64" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="28"/>
-        <v>5.5</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="29"/>
-        <v>3.5</v>
-      </c>
-      <c r="G64" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>3.75</v>
       </c>
       <c r="V64">
         <f>SUM(V60:V63)/4</f>
@@ -19736,106 +19744,106 @@
     </row>
     <row r="65" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B65">
-        <f t="shared" si="31"/>
-        <v>11</v>
+        <f t="shared" si="27"/>
+        <v>9</v>
       </c>
       <c r="C65">
+        <f>C47/(B11+F11+J11+N11)</f>
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <f>D47/(C11+G11+K11+O11)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E65">
+        <f>E47/(D11+H11+L11+P11)</f>
+        <v>4.5</v>
+      </c>
+      <c r="F65">
+        <f>F47/(E11+I11+M11+Q11)</f>
+        <v>4</v>
+      </c>
+      <c r="G65">
         <f t="shared" si="26"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="27"/>
-        <v>5</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="28"/>
-        <v>6</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="30"/>
-        <v>4.291666666666667</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="66" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B66">
-        <f t="shared" si="31"/>
-        <v>12</v>
+        <f t="shared" si="27"/>
+        <v>10</v>
       </c>
       <c r="C66">
-        <f>C50/(B14+F14+J14+N14)</f>
-        <v>11</v>
+        <f>C48/(B12+F12+J12+N12)</f>
+        <v>5.333333333333333</v>
       </c>
       <c r="D66">
-        <f t="shared" si="27"/>
-        <v>4.8</v>
+        <f>D48/(C12+G12+K12+O12)</f>
+        <v>5</v>
       </c>
       <c r="E66">
-        <f t="shared" si="28"/>
-        <v>4.833333333333333</v>
+        <f>E48/(D12+H12+L12+P12)</f>
+        <v>4.5</v>
       </c>
       <c r="F66">
-        <f t="shared" si="29"/>
-        <v>4</v>
+        <f>F48/(E12+I12+M12+Q12)</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="G66">
-        <f t="shared" si="30"/>
-        <v>6.1583333333333332</v>
+        <f t="shared" si="26"/>
+        <v>4.5416666666666661</v>
       </c>
     </row>
     <row r="67" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B67">
-        <f t="shared" si="31"/>
-        <v>13</v>
+        <f t="shared" si="27"/>
+        <v>11</v>
       </c>
       <c r="C67">
-        <f>C51/(B15+F15+J15+N15)</f>
-        <v>7.333333333333333</v>
+        <f>C49/(B13+F13+J13+N13)</f>
+        <v>4.166666666666667</v>
       </c>
       <c r="D67">
-        <f t="shared" si="27"/>
-        <v>4.2</v>
+        <f>D49/(C13+G13+K13+O13)</f>
+        <v>4.8</v>
       </c>
       <c r="E67">
-        <f t="shared" si="28"/>
-        <v>7.5</v>
+        <f>E49/(D13+H13+L13+P13)</f>
+        <v>4</v>
       </c>
       <c r="F67">
-        <f t="shared" si="29"/>
-        <v>3.3333333333333335</v>
+        <f>F49/(E13+I13+M13+Q13)</f>
+        <v>4.333333333333333</v>
       </c>
       <c r="G67">
-        <f>SUM(C67:E67)/3</f>
-        <v>6.3444444444444441</v>
+        <f t="shared" si="26"/>
+        <v>4.3250000000000002</v>
       </c>
     </row>
     <row r="68" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B68">
-        <f>B67+1</f>
-        <v>14</v>
-      </c>
-      <c r="C68" t="e">
-        <f>C52/(B16+F16+J16+N16)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <f>C50/(B14+F14+J14+N14)</f>
+        <v>5</v>
       </c>
       <c r="D68">
-        <f t="shared" si="27"/>
-        <v>3.6</v>
+        <f>D50/(C14+G14+K14+O14)</f>
+        <v>5.4</v>
       </c>
       <c r="E68">
-        <f t="shared" si="28"/>
-        <v>3.6666666666666665</v>
+        <f>E50/(D14+H14+L14+P14)</f>
+        <v>4.833333333333333</v>
       </c>
       <c r="F68">
-        <f t="shared" si="29"/>
-        <v>2.6666666666666665</v>
+        <f>F50/(E14+I14+M14+Q14)</f>
+        <v>3.8</v>
       </c>
       <c r="G68">
-        <f>SUM(D68:E68)/2</f>
-        <v>3.6333333333333333</v>
+        <f t="shared" si="26"/>
+        <v>4.7583333333333337</v>
       </c>
       <c r="R68" t="s">
         <v>36</v>
@@ -19865,13 +19873,105 @@
       <c r="Z68">
         <f>SUM(W68:Y68)</f>
         <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <f>C51/(B15+F15+J15+N15)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="D69">
+        <f>D51/(C15+G15+K15+O15)</f>
+        <v>4.8</v>
+      </c>
+      <c r="E69">
+        <f>E51/(D15+H15+L15+P15)</f>
+        <v>6</v>
+      </c>
+      <c r="F69">
+        <f>F51/(E15+I15+M15+Q15)</f>
+        <v>3.5</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="26"/>
+        <v>4.7416666666666671</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f>B69+1</f>
+        <v>14</v>
+      </c>
+      <c r="C70" t="e">
+        <f>C52/(B16+F16+J16+N16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D70">
+        <f>D52/(C16+G16+K16+O16)</f>
+        <v>4.75</v>
+      </c>
+      <c r="E70">
+        <f>E52/(D16+H16+L16+P16)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="F70">
+        <f>F52/(E16+I16+M16+Q16)</f>
+        <v>4</v>
+      </c>
+      <c r="G70" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f t="shared" ref="B71:B72" si="33">B70+1</f>
+        <v>15</v>
+      </c>
+      <c r="C71" t="e">
+        <f t="shared" ref="C71:C72" si="34">C53/(B17+F17+J17+N17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D71" t="e">
+        <f t="shared" ref="D71:D72" si="35">D53/(C17+G17+K17+O17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E71">
+        <f>E53/(D17+H17+L17+P17)</f>
+        <v>0</v>
+      </c>
+      <c r="F71" t="e">
+        <f>F53/(E17+I17+M17+Q17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G71" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f t="shared" si="33"/>
+        <v>16</v>
+      </c>
+      <c r="C72" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D72" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="W35:AA35"/>
     <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C55:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/xlam/count_around.xlsx
+++ b/xlam/count_around.xlsx
@@ -2919,10 +2919,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$AC$3:$AC$16</c:f>
+              <c:f>'Кубов в древе, S'!$AC$3:$AC$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2963,6 +2963,9 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
@@ -2998,10 +3001,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$AD$3:$AD$16</c:f>
+              <c:f>'Кубов в древе, S'!$AD$3:$AD$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3042,6 +3045,9 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
@@ -3077,10 +3083,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$AE$3:$AE$16</c:f>
+              <c:f>'Кубов в древе, S'!$AE$3:$AE$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -3122,6 +3128,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3159,10 +3168,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$AF$3:$AF$16</c:f>
+              <c:f>'Кубов в древе, S'!$AF$3:$AF$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3203,6 +3212,9 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
@@ -4223,7 +4235,7 @@
                   <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>4.0666666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4649,10 +4661,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$AG$3:$AG$14</c:f>
+              <c:f>'Кубов в древе, S'!$AG$3:$AG$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4688,6 +4700,15 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4734,10 +4755,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$Y$3:$Y$14</c:f>
+              <c:f>'Кубов в древе, S'!$Y$3:$Y$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>6</c:v>
                 </c:pt>
@@ -4773,6 +4794,15 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>101.46713394818617</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>122.74588939834153</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>148.06760838402641</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>178.20045397699141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4819,45 +4849,51 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$AC$37:$AC$48</c:f>
+              <c:f>'Кубов в древе, S'!$AC$37:$AC$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>71</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>93</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>103</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>114</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>145</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>147</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>154</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>127</c:v>
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4904,97 +4940,36 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$AD$37:$AD$41</c:f>
+              <c:f>'Кубов в древе, S'!$AD$37:$AD$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>17.600000000000001</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.400000000000006</c:v>
+                  <c:v>21.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.2</c:v>
+                  <c:v>37.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144</c:v>
+                  <c:v>62.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>218.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Кубов в древе, S'!$Z$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>брошено, кубов</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Кубов в древе, S'!$Z$3:$Z$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.139999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.016599999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45.339753999999992</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67.954307259999979</c:v>
+                  <c:v>92.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.865625639399966</c:v>
+                  <c:v>125.60000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>133.27009451088594</c:v>
+                  <c:v>168.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>178.59141246795426</c:v>
+                  <c:v>211.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>236.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5326,51 +5301,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$AD$37:$AD$50</c:f>
+              <c:f>'Кубов в древе, S'!$AD$37:$AD$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>17.600000000000001</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.400000000000006</c:v>
+                  <c:v>21.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.2</c:v>
+                  <c:v>37.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144</c:v>
+                  <c:v>62.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>218.4</c:v>
+                  <c:v>92.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>301.60000000000002</c:v>
+                  <c:v>125.60000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>384</c:v>
+                  <c:v>168.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>475.2</c:v>
+                  <c:v>211.20000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>591.20000000000005</c:v>
+                  <c:v>236.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>708.80000000000007</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>832.00000000000011</c:v>
+                  <c:v>361.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>933.60000000000014</c:v>
+                  <c:v>425.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1065.6000000000001</c:v>
+                  <c:v>486.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1241.6000000000001</c:v>
+                  <c:v>535.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>540.80000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5417,10 +5395,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$Z$3:$Z$16</c:f>
+              <c:f>'Кубов в древе, S'!$Z$3:$Z$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -5462,6 +5440,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>758.94975777363948</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>937.15021175063089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5508,51 +5489,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$AE$37:$AE$50</c:f>
+              <c:f>'Кубов в древе, S'!$AE$37:$AE$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>17.600000000000001</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.6</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104.6</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>175.6</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>268.60000000000002</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>372.6</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>475.6</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>589.6</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>734.6</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>881.6</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1035.5999999999999</c:v>
+                  <c:v>449</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1162.5999999999999</c:v>
+                  <c:v>529</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1327.6</c:v>
+                  <c:v>605</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1547.6</c:v>
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6106,7 +6090,7 @@
                   <c:v>3.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15657,8 +15641,8 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
@@ -15688,7 +15672,7 @@
       <xdr:col>32</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>173935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
@@ -16225,8 +16209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:Q18"/>
+    <sheetView tabSelected="1" topLeftCell="W16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AG42" sqref="AG42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16441,7 +16425,7 @@
         <v>10</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X16" si="0">G39/W3</f>
+        <f t="shared" ref="X3:X17" si="0">G39/W3</f>
         <v>1.4</v>
       </c>
       <c r="Y3">
@@ -16456,7 +16440,7 @@
         <v>3.5999999999999996</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB16" si="1">Z3*1/100</f>
+        <f t="shared" ref="AB3:AB17" si="1">Z3*1/100</f>
         <v>0.06</v>
       </c>
       <c r="AC3">
@@ -16538,23 +16522,23 @@
         <v>1</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" ref="S4:S16" si="2">B4+C4+D4+E4</f>
+        <f t="shared" ref="S4:S17" si="2">B4+C4+D4+E4</f>
         <v>4</v>
       </c>
       <c r="T4" s="1">
-        <f t="shared" ref="T4:T16" si="3">SUM(F4:I4)</f>
+        <f t="shared" ref="T4:T17" si="3">SUM(F4:I4)</f>
         <v>2</v>
       </c>
       <c r="U4" s="3">
-        <f t="shared" ref="U4:U16" si="4">SUM(J4:M4)</f>
+        <f t="shared" ref="U4:U17" si="4">SUM(J4:M4)</f>
         <v>5</v>
       </c>
       <c r="V4" s="8">
-        <f t="shared" ref="V4:V16" si="5">SUM(N4:Q4)</f>
+        <f t="shared" ref="V4:V17" si="5">SUM(N4:Q4)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W16" si="6">S4+T4+U4+V4</f>
+        <f t="shared" ref="W4:W17" si="6">S4+T4+U4+V4</f>
         <v>11</v>
       </c>
       <c r="X4">
@@ -16562,7 +16546,7 @@
         <v>1.0909090909090908</v>
       </c>
       <c r="Y4" s="9">
-        <f t="shared" ref="Y4:Y16" si="7">Y3*(1-$AA$1)*$Y$1+$AC$1</f>
+        <f t="shared" ref="Y4:Y17" si="7">Y3*(1-$AA$1)*$Y$1+$AC$1</f>
         <v>9.1399999999999988</v>
       </c>
       <c r="Z4">
@@ -16570,7 +16554,7 @@
         <v>15.139999999999999</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AA16" si="8">Z4*0.6</f>
+        <f t="shared" ref="AA4:AA17" si="8">Z4*0.6</f>
         <v>9.0839999999999996</v>
       </c>
       <c r="AB4">
@@ -16578,23 +16562,23 @@
         <v>0.15139999999999998</v>
       </c>
       <c r="AC4">
-        <f t="shared" ref="AC4:AC16" si="9">S4+AC3</f>
+        <f t="shared" ref="AC4:AC17" si="9">S4+AC3</f>
         <v>5</v>
       </c>
       <c r="AD4">
-        <f t="shared" ref="AD4:AD16" si="10">T4+AD3</f>
+        <f t="shared" ref="AD4:AD17" si="10">T4+AD3</f>
         <v>5</v>
       </c>
       <c r="AE4">
-        <f t="shared" ref="AE4:AE16" si="11">U4+AE3</f>
+        <f t="shared" ref="AE4:AE17" si="11">U4+AE3</f>
         <v>9</v>
       </c>
       <c r="AF4">
-        <f t="shared" ref="AF4:AF16" si="12">V4+AF3</f>
+        <f t="shared" ref="AF4:AF17" si="12">V4+AF3</f>
         <v>2</v>
       </c>
       <c r="AG4">
-        <f t="shared" ref="AG4:AG16" si="13">W4+AG3</f>
+        <f t="shared" ref="AG4:AG17" si="13">W4+AG3</f>
         <v>21</v>
       </c>
     </row>
@@ -16684,7 +16668,7 @@
         <v>12.876599999999998</v>
       </c>
       <c r="Z5">
-        <f t="shared" ref="Z5:Z16" si="16">Z4+Y5</f>
+        <f t="shared" ref="Z5:Z17" si="16">Z4+Y5</f>
         <v>28.016599999999997</v>
       </c>
       <c r="AA5">
@@ -17266,7 +17250,7 @@
         <v>14</v>
       </c>
       <c r="X10">
-        <f t="shared" si="0"/>
+        <f>G46/W10</f>
         <v>3.7857142857142856</v>
       </c>
       <c r="Y10" s="9">
@@ -17975,7 +17959,7 @@
       </c>
       <c r="X16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.0666666666666664</v>
       </c>
       <c r="Y16" s="9">
         <f t="shared" si="7"/>
@@ -18014,7 +17998,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f t="shared" si="14"/>
         <v>15</v>
@@ -18067,24 +18051,68 @@
       <c r="Q17" s="6">
         <v>0</v>
       </c>
-      <c r="S17" s="4">
-        <f>SUM(S3:S16)</f>
+      <c r="S17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V17" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="Y17" s="9">
+        <f t="shared" si="7"/>
+        <v>178.20045397699141</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="16"/>
+        <v>937.15021175063089</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="8"/>
+        <v>562.29012705037849</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="1"/>
+        <v>9.3715021175063082</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
-      <c r="T17">
-        <f t="shared" ref="T17:V17" si="17">SUM(T3:T16)</f>
+      <c r="AD17">
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
-      <c r="U17">
-        <f t="shared" si="17"/>
-        <v>48</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="17"/>
+      <c r="AE17">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="12"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AG17">
+        <f t="shared" si="13"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -18098,8 +18126,24 @@
       <c r="O18" s="4"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S18" s="4">
+        <f>SUM(S3:S17)</f>
+        <v>57</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" ref="T18:V18" si="17">SUM(T3:T17)</f>
+        <v>56</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="17"/>
+        <v>50</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="17"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -18114,7 +18158,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -18129,7 +18173,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -18144,7 +18188,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -18159,7 +18203,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -18174,7 +18218,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -18189,7 +18233,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -18204,7 +18248,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -18219,7 +18263,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -18234,7 +18278,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -18249,7 +18293,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -18264,7 +18308,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -18279,7 +18323,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -18308,13 +18352,13 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="W36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X36" t="s">
         <v>5</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>6</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>12</v>
       </c>
       <c r="Z36" t="s">
         <v>7</v>
@@ -18344,31 +18388,31 @@
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
       <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
         <v>3</v>
       </c>
-      <c r="X37">
-        <v>5</v>
-      </c>
       <c r="Y37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC37">
-        <f t="shared" ref="AC37:AC50" si="18">SUM(W37:AA37)</f>
-        <v>22</v>
+        <f t="shared" ref="AC37:AC51" si="18">SUM(W37:AA37)</f>
+        <v>15</v>
       </c>
       <c r="AD37">
         <f>AC37*4/5</f>
-        <v>17.600000000000001</v>
+        <v>12</v>
       </c>
       <c r="AE37">
         <f>AD37</f>
-        <v>17.600000000000001</v>
+        <v>12</v>
       </c>
       <c r="AH37">
         <v>0</v>
@@ -18397,31 +18441,31 @@
         <v>4</v>
       </c>
       <c r="W38">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Y38">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z38">
         <v>5</v>
       </c>
       <c r="AA38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC38">
         <f t="shared" si="18"/>
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AD38">
         <f>(AC38)*4/5+AD37</f>
-        <v>42.400000000000006</v>
+        <v>21.6</v>
       </c>
       <c r="AE38">
         <f>(AC38)+AE37</f>
-        <v>48.6</v>
+        <v>24</v>
       </c>
       <c r="AH38">
         <f>AH37+1</f>
@@ -18460,31 +18504,31 @@
         <v>14</v>
       </c>
       <c r="W39">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Y39">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Z39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA39">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AC39">
         <f t="shared" si="18"/>
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="AD39">
-        <f t="shared" ref="AD39:AD50" si="19">(AC39)*4/5+AD38</f>
-        <v>87.2</v>
+        <f t="shared" ref="AD39:AD51" si="19">(AC39)*4/5+AD38</f>
+        <v>37.6</v>
       </c>
       <c r="AE39">
-        <f t="shared" ref="AE39:AE50" si="20">(AC39)+AE38</f>
-        <v>104.6</v>
+        <f t="shared" ref="AE39:AE51" si="20">(AC39)+AE38</f>
+        <v>44</v>
       </c>
       <c r="AH39">
         <f t="shared" ref="AH39:AH44" si="21">AH38+1</f>
@@ -18520,35 +18564,35 @@
         <v>2</v>
       </c>
       <c r="G40">
-        <f t="shared" ref="G40:G52" si="23">SUM(C40:F40)</f>
+        <f t="shared" ref="G40:G53" si="23">SUM(C40:F40)</f>
         <v>12</v>
       </c>
       <c r="W40">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Y40">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z40">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AA40">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AC40">
         <f t="shared" si="18"/>
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="AD40">
         <f t="shared" si="19"/>
-        <v>144</v>
+        <v>62.400000000000006</v>
       </c>
       <c r="AE40">
         <f t="shared" si="20"/>
-        <v>175.6</v>
+        <v>75</v>
       </c>
       <c r="AH40">
         <f t="shared" si="21"/>
@@ -18588,31 +18632,31 @@
         <v>20</v>
       </c>
       <c r="W41">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Y41">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Z41">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="AA41">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AC41">
         <f t="shared" si="18"/>
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AD41">
         <f t="shared" si="19"/>
-        <v>218.4</v>
+        <v>92.800000000000011</v>
       </c>
       <c r="AE41">
         <f t="shared" si="20"/>
-        <v>268.60000000000002</v>
+        <v>113</v>
       </c>
       <c r="AH41">
         <f t="shared" si="21"/>
@@ -18653,31 +18697,31 @@
         <v>31</v>
       </c>
       <c r="W42">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="X42">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="Y42">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="Z42">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AA42">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AC42">
         <f t="shared" si="18"/>
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="AD42">
         <f t="shared" si="19"/>
-        <v>301.60000000000002</v>
+        <v>125.60000000000001</v>
       </c>
       <c r="AE42">
         <f t="shared" si="20"/>
-        <v>372.6</v>
+        <v>154</v>
       </c>
       <c r="AH42">
         <f t="shared" si="21"/>
@@ -18717,31 +18761,31 @@
         <v>38</v>
       </c>
       <c r="W43">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="X43">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Y43">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="Z43">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AA43">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AC43">
         <f t="shared" si="18"/>
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="AD43">
         <f t="shared" si="19"/>
-        <v>384</v>
+        <v>168.8</v>
       </c>
       <c r="AE43">
         <f t="shared" si="20"/>
-        <v>475.6</v>
+        <v>208</v>
       </c>
       <c r="AH43">
         <f t="shared" si="21"/>
@@ -18778,31 +18822,31 @@
         <v>39</v>
       </c>
       <c r="W44">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y44">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Z44">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AA44">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="AC44">
         <f t="shared" si="18"/>
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="AD44">
         <f t="shared" si="19"/>
-        <v>475.2</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="AE44">
         <f t="shared" si="20"/>
-        <v>589.6</v>
+        <v>261</v>
       </c>
       <c r="AH44">
         <f t="shared" si="21"/>
@@ -18838,31 +18882,31 @@
         <v>54</v>
       </c>
       <c r="W45">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="X45">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="Y45">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="Z45">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="AA45">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="AC45">
         <f t="shared" si="18"/>
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="AD45">
         <f t="shared" si="19"/>
-        <v>591.20000000000005</v>
+        <v>236.8</v>
       </c>
       <c r="AE45">
         <f t="shared" si="20"/>
-        <v>734.6</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
@@ -18890,31 +18934,31 @@
         <v>53</v>
       </c>
       <c r="W46">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="X46">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Y46">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="Z46">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="AA46">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="AC46">
         <f t="shared" si="18"/>
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="AD46">
         <f t="shared" si="19"/>
-        <v>708.80000000000007</v>
+        <v>292</v>
       </c>
       <c r="AE46">
         <f t="shared" si="20"/>
-        <v>881.6</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
@@ -18942,31 +18986,31 @@
         <v>32</v>
       </c>
       <c r="W47">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="X47">
         <v>25</v>
       </c>
       <c r="Y47">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Z47">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="AA47">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AC47">
         <f t="shared" si="18"/>
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="AD47">
         <f t="shared" si="19"/>
-        <v>832.00000000000011</v>
+        <v>361.6</v>
       </c>
       <c r="AE47">
         <f t="shared" si="20"/>
-        <v>1035.5999999999999</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
@@ -18994,31 +19038,31 @@
         <v>69</v>
       </c>
       <c r="W48">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="X48">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="Y48">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z48">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA48">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AC48">
         <f t="shared" si="18"/>
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="AD48">
         <f t="shared" si="19"/>
-        <v>933.60000000000014</v>
+        <v>425.6</v>
       </c>
       <c r="AE48">
         <f t="shared" si="20"/>
-        <v>1162.5999999999999</v>
+        <v>529</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
@@ -19046,31 +19090,31 @@
         <v>87</v>
       </c>
       <c r="W49">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="X49">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="Y49">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="Z49">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC49">
         <f t="shared" si="18"/>
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="AD49">
         <f t="shared" si="19"/>
-        <v>1065.6000000000001</v>
+        <v>486.40000000000003</v>
       </c>
       <c r="AE49">
         <f t="shared" si="20"/>
-        <v>1327.6</v>
+        <v>605</v>
       </c>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.25">
@@ -19101,28 +19145,28 @@
         <v>0</v>
       </c>
       <c r="X50">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z50">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC50">
         <f t="shared" si="18"/>
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="AD50">
         <f t="shared" si="19"/>
-        <v>1241.6000000000001</v>
+        <v>535.20000000000005</v>
       </c>
       <c r="AE50">
         <f t="shared" si="20"/>
-        <v>1547.6</v>
+        <v>666</v>
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.25">
@@ -19149,6 +19193,33 @@
         <f t="shared" si="23"/>
         <v>76</v>
       </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>7</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="19"/>
+        <v>540.80000000000007</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="20"/>
+        <v>673</v>
+      </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -19159,7 +19230,7 @@
         <v>14</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>19</v>
@@ -19172,7 +19243,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="23"/>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
@@ -19182,6 +19253,22 @@
       <c r="B53">
         <f t="shared" ref="B53:B54" si="25">B52+1</f>
         <v>15</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="23"/>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.25">
@@ -19942,7 +20029,7 @@
       </c>
       <c r="E71">
         <f>E53/(D17+H17+L17+P17)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F71" t="e">
         <f>F53/(E17+I17+M17+Q17)</f>

--- a/xlam/count_around.xlsx
+++ b/xlam/count_around.xlsx
@@ -3536,10 +3536,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$S$3:$S$16</c:f>
+              <c:f>'Кубов в древе, S'!$S$3:$S$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3581,6 +3581,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3627,10 +3630,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$T$3:$T$16</c:f>
+              <c:f>'Кубов в древе, S'!$T$3:$T$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3672,6 +3675,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3718,10 +3724,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$U$3:$U$16</c:f>
+              <c:f>'Кубов в древе, S'!$U$3:$U$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -3763,6 +3769,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3815,10 +3824,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Кубов в древе, S'!$V$3:$V$16</c:f>
+              <c:f>'Кубов в древе, S'!$V$3:$V$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3860,6 +3869,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16209,8 +16221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AG42" sqref="AG42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17946,7 +17958,7 @@
         <v>7</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(J16:M16)</f>
         <v>1</v>
       </c>
       <c r="V16" s="8">

--- a/xlam/count_around.xlsx
+++ b/xlam/count_around.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\860230\хлам\wr 2ch\wr Псевдопыль (Искры во тьме)\wr-stardust-visualiser\xlam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DPaushev\Desktop\xlam\wr-stardust\xlam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11592"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -443,6 +443,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -659,28 +660,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>99</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -696,11 +697,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="323129416"/>
-        <c:axId val="320933720"/>
+        <c:axId val="-223858784"/>
+        <c:axId val="-223857696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="323129416"/>
+        <c:axId val="-223858784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,7 +744,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320933720"/>
+        <c:crossAx val="-223857696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -751,7 +752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320933720"/>
+        <c:axId val="-223857696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,7 +803,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323129416"/>
+        <c:crossAx val="-223858784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1930,11 +1931,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="324198888"/>
-        <c:axId val="324200456"/>
+        <c:axId val="-186708896"/>
+        <c:axId val="-186708352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="324198888"/>
+        <c:axId val="-186708896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1976,7 +1977,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324200456"/>
+        <c:crossAx val="-186708352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1984,7 +1985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324200456"/>
+        <c:axId val="-186708352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2035,7 +2036,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324198888"/>
+        <c:crossAx val="-186708896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2301,11 +2302,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="324199280"/>
-        <c:axId val="324201240"/>
+        <c:axId val="-223857152"/>
+        <c:axId val="-186986304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="324199280"/>
+        <c:axId val="-223857152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1850"/>
@@ -2363,12 +2364,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324201240"/>
+        <c:crossAx val="-186986304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="324201240"/>
+        <c:axId val="-186986304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,7 +2426,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324199280"/>
+        <c:crossAx val="-223857152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2489,6 +2490,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2639,11 +2641,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="409592136"/>
-        <c:axId val="409590568"/>
+        <c:axId val="-186979232"/>
+        <c:axId val="-186973792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="409592136"/>
+        <c:axId val="-186979232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1840"/>
@@ -2701,12 +2703,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409590568"/>
+        <c:crossAx val="-186973792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409590568"/>
+        <c:axId val="-186973792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2763,7 +2765,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409592136"/>
+        <c:crossAx val="-186979232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2924,49 +2926,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>57</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3009,46 +3011,46 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>56</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3088,49 +3090,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3173,7 +3175,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -3182,40 +3184,40 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3231,11 +3233,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="320933328"/>
-        <c:axId val="320938816"/>
+        <c:axId val="-223863136"/>
+        <c:axId val="-223862048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="320933328"/>
+        <c:axId val="-223863136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3277,7 +3279,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320938816"/>
+        <c:crossAx val="-223862048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3285,7 +3287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320938816"/>
+        <c:axId val="-223862048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3336,7 +3338,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320933328"/>
+        <c:crossAx val="-223863136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3541,7 +3543,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -3550,40 +3552,40 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3638,46 +3640,46 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3729,49 +3731,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3829,49 +3831,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3888,11 +3890,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="320935288"/>
-        <c:axId val="320936072"/>
+        <c:axId val="-223868576"/>
+        <c:axId val="-223861504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="320935288"/>
+        <c:axId val="-223868576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3934,7 +3936,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320936072"/>
+        <c:crossAx val="-223861504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3942,7 +3944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320936072"/>
+        <c:axId val="-223861504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3993,7 +3995,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320935288"/>
+        <c:crossAx val="-223868576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4208,46 +4210,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.4</c:v>
+                  <c:v>0.73684210526315785</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0909090909090908</c:v>
+                  <c:v>0.6875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8181818181818181</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2142857142857144</c:v>
+                  <c:v>1.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1666666666666665</c:v>
+                  <c:v>1.0833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8571428571428572</c:v>
+                  <c:v>1.1219512195121952</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7857142857142856</c:v>
+                  <c:v>1.0377358490566038</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5714285714285712</c:v>
+                  <c:v>1.1111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3125</c:v>
+                  <c:v>1.2586206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3499999999999996</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7058823529411766</c:v>
+                  <c:v>1.1470588235294117</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.75</c:v>
+                  <c:v>1.1797752808988764</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0666666666666664</c:v>
+                  <c:v>1.0303030303030303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4300,43 +4302,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4353,11 +4355,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="320937640"/>
-        <c:axId val="322177296"/>
+        <c:axId val="-186701280"/>
+        <c:axId val="-186699104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="320937640"/>
+        <c:axId val="-186701280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4399,7 +4401,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322177296"/>
+        <c:crossAx val="-186699104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4407,7 +4409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322177296"/>
+        <c:axId val="-186699104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4458,7 +4460,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320937640"/>
+        <c:crossAx val="-186701280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4587,7 +4589,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4678,49 +4679,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>99</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>106</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>122</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>142</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>159</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>175</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>190</c:v>
+                  <c:v>654</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>192</c:v>
+                  <c:v>794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4998,11 +4999,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="324197320"/>
-        <c:axId val="324201632"/>
+        <c:axId val="-186695296"/>
+        <c:axId val="-186700192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="324197320"/>
+        <c:axId val="-186695296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5044,7 +5045,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324201632"/>
+        <c:crossAx val="-186700192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5052,7 +5053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324201632"/>
+        <c:axId val="-186700192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5103,7 +5104,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324197320"/>
+        <c:crossAx val="-186695296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5237,7 +5238,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5565,11 +5565,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="324195360"/>
-        <c:axId val="324196928"/>
+        <c:axId val="-186700736"/>
+        <c:axId val="-186706720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="324195360"/>
+        <c:axId val="-186700736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5611,7 +5611,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324196928"/>
+        <c:crossAx val="-186706720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5619,7 +5619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324196928"/>
+        <c:axId val="-186706720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5670,7 +5670,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324195360"/>
+        <c:crossAx val="-186700736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5684,7 +5684,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5872,49 +5871,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.5</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>1.2857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.75</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.333333333333333</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.166666666666667</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>1.2307692307692308</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1.1153846153846154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5969,46 +5968,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6063,46 +6062,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1.1111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5</c:v>
+                  <c:v>1.2352941176470589</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.833333333333333</c:v>
+                  <c:v>1.1363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>1.1282051282051282</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.6666666666666665</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5</c:v>
+                  <c:v>0.93478260869565222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6154,49 +6153,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>1.1428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5</c:v>
+                  <c:v>1.2307692307692308</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5</c:v>
+                  <c:v>1.1428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>1.2666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8</c:v>
+                  <c:v>1.1666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5</c:v>
+                  <c:v>1.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6251,46 +6250,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6351,49 +6350,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.875</c:v>
+                  <c:v>0.86111111111111116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.125</c:v>
+                  <c:v>0.8214285714285714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8333333333333333</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>1.0634920634920635</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.125</c:v>
+                  <c:v>1.1666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0666666666666669</c:v>
+                  <c:v>1.3964285714285714</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.875</c:v>
+                  <c:v>1.1076923076923078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.75</c:v>
+                  <c:v>1.0357142857142856</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>1.0833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5416666666666661</c:v>
+                  <c:v>1.260105580693816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3250000000000002</c:v>
+                  <c:v>1.1904761904761905</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7583333333333337</c:v>
+                  <c:v>1.145757575757576</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7416666666666671</c:v>
+                  <c:v>1.2742673992673992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1.0833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1.1375418060200668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6410,11 +6409,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="324198104"/>
-        <c:axId val="324194968"/>
+        <c:axId val="-186709440"/>
+        <c:axId val="-186705632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="324198104"/>
+        <c:axId val="-186709440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6456,7 +6455,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324194968"/>
+        <c:crossAx val="-186705632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6464,7 +6463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324194968"/>
+        <c:axId val="-186705632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6515,7 +6514,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324198104"/>
+        <c:crossAx val="-186709440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6636,7 +6635,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6709,16 +6707,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6855,11 +6853,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="324195752"/>
-        <c:axId val="324200064"/>
+        <c:axId val="-186707264"/>
+        <c:axId val="-186696928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="324195752"/>
+        <c:axId val="-186707264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6901,7 +6899,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324200064"/>
+        <c:crossAx val="-186696928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6909,7 +6907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324200064"/>
+        <c:axId val="-186696928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6960,7 +6958,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324195752"/>
+        <c:crossAx val="-186707264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6974,7 +6972,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8776,11 +8773,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="324194576"/>
-        <c:axId val="324197712"/>
+        <c:axId val="-186696384"/>
+        <c:axId val="-186710528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="324194576"/>
+        <c:axId val="-186696384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8822,7 +8819,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324197712"/>
+        <c:crossAx val="-186710528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8830,7 +8827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324197712"/>
+        <c:axId val="-186710528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8895,7 +8892,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324194576"/>
+        <c:crossAx val="-186696384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16175,38 +16172,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:A9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>32</v>
       </c>
@@ -16221,27 +16218,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="24" max="24" width="11.42578125" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" customWidth="1"/>
     <col min="25" max="25" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
       <c r="R1" t="s">
@@ -16266,54 +16263,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>5</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>6</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>7</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>8</v>
       </c>
       <c r="S2" t="s">
         <v>0</v>
@@ -16361,7 +16358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -16369,56 +16366,56 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3" s="2">
         <f>B3+C3+D3+E3</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T3" s="1">
         <f>SUM(F3:I3)</f>
@@ -16426,19 +16423,19 @@
       </c>
       <c r="U3" s="3">
         <f>SUM(J3:M3)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V3" s="8">
         <f>SUM(N3:Q3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <f>S3+T3+U3+V3</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X17" si="0">G39/W3</f>
-        <v>1.4</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="Y3">
         <v>6</v>
@@ -16457,7 +16454,7 @@
       </c>
       <c r="AC3">
         <f>S3</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD3">
         <f>T3</f>
@@ -16465,24 +16462,24 @@
       </c>
       <c r="AE3">
         <f>U3</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AF3">
         <f>V3</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG3">
         <f>W3</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -16491,43 +16488,43 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
       </c>
       <c r="R4">
         <f>R3+1</f>
@@ -16539,23 +16536,23 @@
       </c>
       <c r="T4" s="1">
         <f t="shared" ref="T4:T17" si="3">SUM(F4:I4)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U4" s="3">
         <f t="shared" ref="U4:U17" si="4">SUM(J4:M4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V4" s="8">
         <f t="shared" ref="V4:V17" si="5">SUM(N4:Q4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <f t="shared" ref="W4:W17" si="6">S4+T4+U4+V4</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>1.0909090909090908</v>
+        <v>0.6875</v>
       </c>
       <c r="Y4" s="9">
         <f t="shared" ref="Y4:Y17" si="7">Y3*(1-$AA$1)*$Y$1+$AC$1</f>
@@ -16575,15 +16572,15 @@
       </c>
       <c r="AC4">
         <f t="shared" ref="AC4:AC17" si="9">S4+AC3</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AD4">
         <f t="shared" ref="AD4:AD17" si="10">T4+AD3</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE4">
         <f t="shared" ref="AE4:AE17" si="11">U4+AE3</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AF4">
         <f t="shared" ref="AF4:AF17" si="12">V4+AF3</f>
@@ -16591,10 +16588,10 @@
       </c>
       <c r="AG4">
         <f t="shared" ref="AG4:AG17" si="13">W4+AG3</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A17" si="14">A4+1</f>
         <v>3</v>
@@ -16606,34 +16603,34 @@
         <v>0</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
+      <c r="K5">
         <v>2</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -16657,11 +16654,11 @@
       </c>
       <c r="T5" s="1">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U5" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V5" s="8">
         <f t="shared" si="5"/>
@@ -16669,11 +16666,11 @@
       </c>
       <c r="W5">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>1.8181818181818181</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="9">
         <f t="shared" si="7"/>
@@ -16693,15 +16690,15 @@
       </c>
       <c r="AC5">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD5">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE5">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AF5">
         <f t="shared" si="12"/>
@@ -16709,61 +16706,61 @@
       </c>
       <c r="AG5">
         <f t="shared" si="13"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>1</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
+      <c r="Q6">
         <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
       </c>
       <c r="R6">
         <f t="shared" si="15"/>
@@ -16771,27 +16768,27 @@
       </c>
       <c r="S6" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="U6" s="3">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V6" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>2.2142857142857144</v>
+        <v>1.0714285714285714</v>
       </c>
       <c r="Y6" s="9">
         <f t="shared" si="7"/>
@@ -16811,69 +16808,69 @@
       </c>
       <c r="AC6">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AD6">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AE6">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AF6">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG6">
         <f t="shared" si="13"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
         <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>1</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
         <v>0</v>
       </c>
@@ -16881,7 +16878,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <f t="shared" si="15"/>
@@ -16889,15 +16886,15 @@
       </c>
       <c r="S7" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U7" s="3">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V7" s="8">
         <f t="shared" si="5"/>
@@ -16905,11 +16902,11 @@
       </c>
       <c r="W7">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>3.1666666666666665</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="Y7" s="9">
         <f t="shared" si="7"/>
@@ -16929,32 +16926,32 @@
       </c>
       <c r="AC7">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AD7">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AE7">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="AF7">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG7">
         <f t="shared" si="13"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -16963,31 +16960,31 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>3</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -16996,7 +16993,7 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -17007,27 +17004,27 @@
       </c>
       <c r="S8" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V8" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W8">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1.32</v>
       </c>
       <c r="Y8" s="9">
         <f t="shared" si="7"/>
@@ -17047,77 +17044,77 @@
       </c>
       <c r="AC8">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="AD8">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AE8">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AF8">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG8">
         <f t="shared" si="13"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
       </c>
       <c r="R9">
         <f t="shared" si="15"/>
@@ -17125,15 +17122,15 @@
       </c>
       <c r="S9" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="U9" s="3">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="V9" s="8">
         <f t="shared" si="5"/>
@@ -17141,11 +17138,11 @@
       </c>
       <c r="W9">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>3.8571428571428572</v>
+        <v>1.1219512195121952</v>
       </c>
       <c r="Y9" s="9">
         <f t="shared" si="7"/>
@@ -17165,77 +17162,77 @@
       </c>
       <c r="AC9">
         <f t="shared" si="9"/>
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="AD9">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="AE9">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AF9">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG9">
         <f t="shared" si="13"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
       </c>
       <c r="R10">
         <f t="shared" si="15"/>
@@ -17243,27 +17240,27 @@
       </c>
       <c r="S10" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="U10" s="3">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="V10" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="X10">
         <f>G46/W10</f>
-        <v>3.7857142857142856</v>
+        <v>1.0377358490566038</v>
       </c>
       <c r="Y10" s="9">
         <f t="shared" si="7"/>
@@ -17283,74 +17280,74 @@
       </c>
       <c r="AC10">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="AD10">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AE10">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AF10">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG10">
         <f t="shared" si="13"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -17361,27 +17358,27 @@
       </c>
       <c r="S11" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U11" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="V11" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W11">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="X11">
         <f t="shared" si="0"/>
-        <v>4.5714285714285712</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="Y11" s="9">
         <f t="shared" si="7"/>
@@ -17401,77 +17398,77 @@
       </c>
       <c r="AC11">
         <f t="shared" si="9"/>
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="AD11">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AE11">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="AF11">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG11">
         <f t="shared" si="13"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
         <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>3</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
         <v>2</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
       </c>
       <c r="R12">
         <f t="shared" si="15"/>
@@ -17479,27 +17476,27 @@
       </c>
       <c r="S12" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="U12" s="3">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="W12">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="X12">
         <f t="shared" si="0"/>
-        <v>4.3125</v>
+        <v>1.2586206896551724</v>
       </c>
       <c r="Y12" s="9">
         <f t="shared" si="7"/>
@@ -17519,74 +17516,74 @@
       </c>
       <c r="AC12">
         <f t="shared" si="9"/>
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="AD12">
         <f t="shared" si="10"/>
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="AE12">
         <f t="shared" si="11"/>
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AF12">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AG12">
         <f t="shared" si="13"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -17597,15 +17594,15 @@
       </c>
       <c r="S13" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="V13" s="8">
         <f t="shared" si="5"/>
@@ -17613,11 +17610,11 @@
       </c>
       <c r="W13">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="X13">
         <f t="shared" si="0"/>
-        <v>4.3499999999999996</v>
+        <v>1.18</v>
       </c>
       <c r="Y13" s="9">
         <f t="shared" si="7"/>
@@ -17637,77 +17634,77 @@
       </c>
       <c r="AC13">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AD13">
         <f t="shared" si="10"/>
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="AE13">
         <f t="shared" si="11"/>
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="AF13">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AG13">
         <f t="shared" si="13"/>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
         <v>2</v>
       </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
       <c r="Q14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <f t="shared" si="15"/>
@@ -17715,27 +17712,27 @@
       </c>
       <c r="S14" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="V14" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="W14">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="X14">
         <f t="shared" si="0"/>
-        <v>4.7058823529411766</v>
+        <v>1.1470588235294117</v>
       </c>
       <c r="Y14" s="9">
         <f t="shared" si="7"/>
@@ -17755,26 +17752,26 @@
       </c>
       <c r="AC14">
         <f t="shared" si="9"/>
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="AD14">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="AE14">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="AF14">
         <f t="shared" si="12"/>
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="AG14">
         <f t="shared" si="13"/>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <f t="shared" si="14"/>
         <v>13</v>
@@ -17783,49 +17780,49 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>34</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>1</v>
       </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
       <c r="M15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N15">
         <v>3</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R15">
         <f t="shared" si="15"/>
@@ -17833,27 +17830,27 @@
       </c>
       <c r="S15" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="T15" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="U15" s="3">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="W15">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="X15">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>1.1797752808988764</v>
       </c>
       <c r="Y15" s="9">
         <f t="shared" si="7"/>
@@ -17873,71 +17870,71 @@
       </c>
       <c r="AC15">
         <f t="shared" si="9"/>
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="AD15">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="AE15">
         <f t="shared" si="11"/>
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="AF15">
         <f t="shared" si="12"/>
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AG15">
         <f t="shared" si="13"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>36</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>24</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>11</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>3</v>
-      </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -17951,27 +17948,27 @@
       </c>
       <c r="S16" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="U16" s="3">
         <f>SUM(J16:M16)</f>
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W16">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="X16">
         <f t="shared" si="0"/>
-        <v>4.0666666666666664</v>
+        <v>1.0303030303030303</v>
       </c>
       <c r="Y16" s="9">
         <f t="shared" si="7"/>
@@ -17991,101 +17988,101 @@
       </c>
       <c r="AC16">
         <f t="shared" si="9"/>
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="AD16">
         <f t="shared" si="10"/>
-        <v>56</v>
+        <v>235</v>
       </c>
       <c r="AE16">
         <f t="shared" si="11"/>
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="AF16">
         <f t="shared" si="12"/>
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="AG16">
         <f t="shared" si="13"/>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="B17" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" s="6">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E17" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F17" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" s="6">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I17" s="6">
         <v>0</v>
       </c>
       <c r="J17" s="6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K17" s="6">
         <v>0</v>
       </c>
       <c r="L17" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N17" s="6">
         <v>0</v>
       </c>
       <c r="O17" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P17" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="6">
         <v>0</v>
       </c>
       <c r="S17" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="V17" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="X17">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>0.99285714285714288</v>
       </c>
       <c r="Y17" s="9">
         <f t="shared" si="7"/>
@@ -18105,26 +18102,26 @@
       </c>
       <c r="AC17">
         <f t="shared" si="9"/>
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="AD17">
         <f t="shared" si="10"/>
-        <v>56</v>
+        <v>284</v>
       </c>
       <c r="AE17">
         <f t="shared" si="11"/>
-        <v>50</v>
+        <v>237</v>
       </c>
       <c r="AF17">
         <f t="shared" si="12"/>
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AG17">
         <f t="shared" si="13"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -18140,22 +18137,22 @@
       <c r="Q18" s="4"/>
       <c r="S18" s="4">
         <f>SUM(S3:S17)</f>
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="T18" s="4">
         <f t="shared" ref="T18:V18" si="17">SUM(T3:T17)</f>
-        <v>56</v>
+        <v>284</v>
       </c>
       <c r="U18" s="4">
         <f t="shared" si="17"/>
-        <v>50</v>
+        <v>237</v>
       </c>
       <c r="V18" s="4">
         <f t="shared" si="17"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -18170,7 +18167,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -18185,7 +18182,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -18200,7 +18197,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -18215,7 +18212,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -18230,7 +18227,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -18245,7 +18242,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -18260,7 +18257,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -18275,7 +18272,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -18290,7 +18287,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -18305,7 +18302,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -18320,7 +18317,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -18335,7 +18332,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -18350,7 +18347,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="W35" s="19" t="s">
         <v>16</v>
       </c>
@@ -18362,7 +18359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="W36" t="s">
         <v>12</v>
       </c>
@@ -18391,7 +18388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="C37" s="19" t="s">
         <v>24</v>
       </c>
@@ -18433,7 +18430,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -18492,7 +18489,7 @@
         <v>1.7083333333333333</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -18500,16 +18497,16 @@
         <v>1</v>
       </c>
       <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
         <v>3</v>
       </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39">
-        <v>4</v>
-      </c>
       <c r="F39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39">
         <f>SUM(C39:F39)</f>
@@ -18555,9 +18552,9 @@
         <v>1.5317286652078776</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="B40">
         <f>B39+1</f>
@@ -18567,17 +18564,17 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
         <v>5</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
       </c>
       <c r="G40">
         <f t="shared" ref="G40:G53" si="23">SUM(C40:F40)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -18619,29 +18616,29 @@
         <v>1.4949598496497525</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="B41">
         <f t="shared" ref="B41:B51" si="24">B40+1</f>
         <v>3</v>
       </c>
       <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
         <v>4</v>
       </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>8</v>
-      </c>
       <c r="F41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G41">
         <f t="shared" si="23"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="W41">
         <v>0</v>
@@ -18683,30 +18680,29 @@
         <v>1.1545241703675904</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f>A41+0.2</f>
-        <v>2.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="B42">
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
         <v>8</v>
       </c>
-      <c r="D42">
-        <v>11</v>
-      </c>
       <c r="E42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G42">
         <f t="shared" si="23"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W42">
         <v>2</v>
@@ -18748,29 +18744,29 @@
         <v>1.1054828150958578</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="B43">
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F43">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G43">
         <f t="shared" si="23"/>
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="W43">
         <v>0</v>
@@ -18808,30 +18804,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f>A43+0.2</f>
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="B44">
         <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44">
+        <v>9</v>
+      </c>
+      <c r="E44">
         <v>6</v>
       </c>
-      <c r="E44">
-        <v>13</v>
-      </c>
       <c r="F44">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G44">
         <f t="shared" si="23"/>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -18869,29 +18864,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="B45">
         <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45">
         <v>16</v>
-      </c>
-      <c r="D45">
-        <v>8</v>
-      </c>
-      <c r="E45">
-        <v>16</v>
-      </c>
-      <c r="F45">
-        <v>14</v>
       </c>
       <c r="G45">
         <f t="shared" si="23"/>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="W45">
         <v>0</v>
@@ -18921,29 +18916,29 @@
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="B46">
         <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>16</v>
+      </c>
+      <c r="E46">
         <v>15</v>
       </c>
-      <c r="D46">
-        <v>14</v>
-      </c>
-      <c r="E46">
-        <v>17</v>
-      </c>
       <c r="F46">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G46">
         <f t="shared" si="23"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W46">
         <v>0</v>
@@ -18973,29 +18968,29 @@
         <v>362</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="B47">
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D47">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E47">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G47">
         <f t="shared" si="23"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="W47">
         <v>0</v>
@@ -19025,29 +19020,29 @@
         <v>449</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="B48">
         <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="C48">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E48">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F48">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G48">
         <f t="shared" si="23"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="W48">
         <v>0</v>
@@ -19077,29 +19072,29 @@
         <v>529</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="B49">
         <f t="shared" si="24"/>
         <v>11</v>
       </c>
       <c r="C49">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
         <v>24</v>
       </c>
-      <c r="E49">
-        <v>12</v>
-      </c>
       <c r="F49">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G49">
         <f t="shared" si="23"/>
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="W49">
         <v>0</v>
@@ -19129,29 +19124,29 @@
         <v>605</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="B50">
         <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D50">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E50">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F50">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <f t="shared" si="23"/>
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="W50">
         <v>0</v>
@@ -19181,29 +19176,29 @@
         <v>666</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="B51">
         <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="C51">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E51">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F51">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G51">
         <f t="shared" si="23"/>
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="W51">
         <v>0</v>
@@ -19233,57 +19228,71 @@
         <v>673</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="B52">
         <f>B51+1</f>
         <v>14</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D52">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E52">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G52">
         <f t="shared" si="23"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>6.3</v>
+        <v>1.2</v>
       </c>
       <c r="B53">
-        <f t="shared" ref="B53:B54" si="25">B52+1</f>
+        <f t="shared" ref="B53" si="25">B52+1</f>
         <v>15</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E53">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G53">
         <f t="shared" si="23"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>102</v>
+      </c>
+      <c r="F54">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C55" s="19" t="s">
         <v>26</v>
       </c>
@@ -19291,7 +19300,7 @@
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>5</v>
       </c>
@@ -19308,58 +19317,58 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <f>C39/(B3+F3+J3+N3)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C57:C70" si="26">C39/(B3+F3+J3+N3)</f>
+        <v>0.44444444444444442</v>
       </c>
       <c r="D57">
-        <f>D39/(C3+G3+K3+O3)</f>
+        <f t="shared" ref="D57:D70" si="27">D39/(C3+G3+K3+O3)</f>
         <v>1</v>
       </c>
       <c r="E57">
-        <f>E39/(D3+H3+L3+P3)</f>
+        <f t="shared" ref="E57:E70" si="28">E39/(D3+H3+L3+P3)</f>
         <v>1</v>
       </c>
       <c r="F57">
-        <f>F39/(E3+I3+M3+Q3)</f>
-        <v>4</v>
+        <f t="shared" ref="F57:F70" si="29">F39/(E3+I3+M3+Q3)</f>
+        <v>1</v>
       </c>
       <c r="G57">
         <f>SUM(C57:F57)/4</f>
-        <v>1.875</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="S57" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B58">
         <f>B57+1</f>
         <v>2</v>
       </c>
       <c r="C58">
-        <f>C40/(B4+F4+J4+N4)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="D58">
-        <f>D40/(C4+G4+K4+O4)</f>
-        <v>1.5</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="E58">
-        <f>E40/(D4+H4+L4+P4)</f>
+        <f t="shared" si="28"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="F58">
-        <f>F40/(E4+I4+M4+Q4)</f>
-        <v>1</v>
-      </c>
       <c r="G58">
-        <f t="shared" ref="G58:G71" si="26">SUM(C58:F58)/4</f>
-        <v>1.125</v>
+        <f t="shared" ref="G58:G71" si="30">SUM(C58:F58)/4</f>
+        <v>0.8214285714285714</v>
       </c>
       <c r="S58" t="s">
         <v>39</v>
@@ -19377,30 +19386,30 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B59">
-        <f t="shared" ref="B59:B69" si="27">B58+1</f>
+        <f t="shared" ref="B59:B69" si="31">B58+1</f>
         <v>3</v>
       </c>
       <c r="C59">
-        <f>C41/(B5+F5+J5+N5)</f>
-        <v>2</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="D59">
-        <f>D41/(C5+G5+K5+O5)</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="E59">
-        <f>E41/(D5+H5+L5+P5)</f>
-        <v>2</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="F59">
-        <f>F41/(E5+I5+M5+Q5)</f>
-        <v>2</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="G59">
-        <f t="shared" si="26"/>
-        <v>1.8333333333333333</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="S59" t="s">
         <v>2</v>
@@ -19454,30 +19463,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B60">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D60">
         <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="C60">
-        <f>C42/(B6+F6+J6+N6)</f>
-        <v>2</v>
-      </c>
-      <c r="D60">
-        <f>D42/(C6+G6+K6+O6)</f>
-        <v>2.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <f>E42/(D6+H6+L6+P6)</f>
-        <v>2</v>
+        <f t="shared" si="28"/>
+        <v>1.1111111111111112</v>
       </c>
       <c r="F60">
-        <f>F42/(E6+I6+M6+Q6)</f>
-        <v>3</v>
+        <f t="shared" si="29"/>
+        <v>1.1428571428571428</v>
       </c>
       <c r="G60">
-        <f t="shared" si="26"/>
-        <v>2.2999999999999998</v>
+        <f t="shared" si="30"/>
+        <v>1.0634920634920635</v>
       </c>
       <c r="R60" t="s">
         <v>34</v>
@@ -19548,30 +19557,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B61">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="26"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="D61">
         <f t="shared" si="27"/>
-        <v>5</v>
-      </c>
-      <c r="C61">
-        <f>C43/(B7+F7+J7+N7)</f>
-        <v>3</v>
-      </c>
-      <c r="D61">
-        <f>D43/(C7+G7+K7+O7)</f>
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <f>E43/(D7+H7+L7+P7)</f>
-        <v>3</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="F61">
-        <f>F43/(E7+I7+M7+Q7)</f>
-        <v>3</v>
+        <f t="shared" si="29"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="G61">
-        <f t="shared" si="26"/>
-        <v>3.125</v>
+        <f t="shared" si="30"/>
+        <v>1.1666666666666665</v>
       </c>
       <c r="R61" t="s">
         <v>35</v>
@@ -19632,34 +19641,34 @@
         <v>25</v>
       </c>
       <c r="AO61">
-        <f t="shared" ref="AO61:AO62" si="28">SUM(AL61:AN61)</f>
+        <f t="shared" ref="AO61:AO62" si="32">SUM(AL61:AN61)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B62">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="26"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="D62">
         <f t="shared" si="27"/>
-        <v>6</v>
-      </c>
-      <c r="C62">
-        <f>C44/(B8+F8+J8+N8)</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="D62">
-        <f>D44/(C8+G8+K8+O8)</f>
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="E62">
-        <f>E44/(D8+H8+L8+P8)</f>
-        <v>2.6</v>
+        <f t="shared" si="28"/>
+        <v>1.5</v>
       </c>
       <c r="F62">
-        <f>F44/(E8+I8+M8+Q8)</f>
-        <v>3.3333333333333335</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="G62">
-        <f t="shared" si="26"/>
-        <v>3.0666666666666669</v>
+        <f t="shared" si="30"/>
+        <v>1.3964285714285714</v>
       </c>
       <c r="R62" t="s">
         <v>37</v>
@@ -19674,7 +19683,7 @@
         <v>4</v>
       </c>
       <c r="V62">
-        <f t="shared" ref="V62:V63" si="29">SUM(S62:U62)</f>
+        <f t="shared" ref="V62:V63" si="33">SUM(S62:U62)</f>
         <v>11</v>
       </c>
       <c r="W62">
@@ -19687,7 +19696,7 @@
         <v>4</v>
       </c>
       <c r="Z62">
-        <f t="shared" ref="Z62:Z63" si="30">SUM(W62:Y62)</f>
+        <f t="shared" ref="Z62:Z63" si="34">SUM(W62:Y62)</f>
         <v>14</v>
       </c>
       <c r="AB62">
@@ -19700,7 +19709,7 @@
         <v>8</v>
       </c>
       <c r="AE62">
-        <f t="shared" ref="AE62:AE63" si="31">SUM(AB62:AD62)</f>
+        <f t="shared" ref="AE62:AE63" si="35">SUM(AB62:AD62)</f>
         <v>19</v>
       </c>
       <c r="AG62">
@@ -19713,41 +19722,41 @@
         <v>8</v>
       </c>
       <c r="AJ62">
-        <f t="shared" ref="AJ62" si="32">SUM(AG62:AI62)</f>
+        <f t="shared" ref="AJ62" si="36">SUM(AG62:AI62)</f>
         <v>21</v>
       </c>
       <c r="AN62">
         <v>25</v>
       </c>
       <c r="AO62">
+        <f t="shared" si="32"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <f t="shared" si="31"/>
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="27"/>
+        <v>1.2</v>
+      </c>
+      <c r="E63">
         <f t="shared" si="28"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <f t="shared" si="27"/>
-        <v>7</v>
-      </c>
-      <c r="C63">
-        <f>C45/(B9+F9+J9+N9)</f>
-        <v>4</v>
-      </c>
-      <c r="D63">
-        <f>D45/(C9+G9+K9+O9)</f>
-        <v>4</v>
-      </c>
-      <c r="E63">
-        <f>E45/(D9+H9+L9+P9)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <f>F45/(E9+I9+M9+Q9)</f>
-        <v>3.5</v>
+        <f t="shared" si="29"/>
+        <v>1.2307692307692308</v>
       </c>
       <c r="G63">
-        <f t="shared" si="26"/>
-        <v>3.875</v>
+        <f t="shared" si="30"/>
+        <v>1.1076923076923078</v>
       </c>
       <c r="R63" t="s">
         <v>38</v>
@@ -19762,7 +19771,7 @@
         <v>3</v>
       </c>
       <c r="V63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="W63">
@@ -19775,7 +19784,7 @@
         <v>5</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>14</v>
       </c>
       <c r="AB63">
@@ -19788,37 +19797,37 @@
         <v>8</v>
       </c>
       <c r="AE63">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>19</v>
       </c>
       <c r="AF63" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B64">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D64">
         <f t="shared" si="27"/>
-        <v>8</v>
-      </c>
-      <c r="C64">
-        <f>C46/(B10+F10+J10+N10)</f>
-        <v>3.75</v>
-      </c>
-      <c r="D64">
-        <f>D46/(C10+G10+K10+O10)</f>
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <f>E46/(D10+H10+L10+P10)</f>
-        <v>4.25</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="F64">
-        <f>F46/(E10+I10+M10+Q10)</f>
-        <v>3.5</v>
+        <f t="shared" si="29"/>
+        <v>1.1428571428571428</v>
       </c>
       <c r="G64">
-        <f t="shared" si="26"/>
-        <v>3.75</v>
+        <f t="shared" si="30"/>
+        <v>1.0357142857142856</v>
       </c>
       <c r="V64">
         <f>SUM(V60:V63)/4</f>
@@ -19841,108 +19850,108 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B65">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="26"/>
+        <v>1.2</v>
+      </c>
+      <c r="D65">
         <f t="shared" si="27"/>
-        <v>9</v>
-      </c>
-      <c r="C65">
-        <f>C47/(B11+F11+J11+N11)</f>
-        <v>5</v>
-      </c>
-      <c r="D65">
-        <f>D47/(C11+G11+K11+O11)</f>
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <f>E47/(D11+H11+L11+P11)</f>
-        <v>4.5</v>
+        <f t="shared" si="28"/>
+        <v>0.8</v>
       </c>
       <c r="F65">
-        <f>F47/(E11+I11+M11+Q11)</f>
-        <v>4</v>
+        <f t="shared" si="29"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="G65">
+        <f t="shared" si="30"/>
+        <v>1.0833333333333333</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <f t="shared" si="31"/>
+        <v>10</v>
+      </c>
+      <c r="C66">
         <f t="shared" si="26"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="D66">
         <f t="shared" si="27"/>
-        <v>10</v>
-      </c>
-      <c r="C66">
-        <f>C48/(B12+F12+J12+N12)</f>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="D66">
-        <f>D48/(C12+G12+K12+O12)</f>
-        <v>5</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="E66">
-        <f>E48/(D12+H12+L12+P12)</f>
-        <v>4.5</v>
+        <f t="shared" si="28"/>
+        <v>1.2352941176470589</v>
       </c>
       <c r="F66">
-        <f>F48/(E12+I12+M12+Q12)</f>
-        <v>3.3333333333333335</v>
+        <f t="shared" si="29"/>
+        <v>1.2666666666666666</v>
       </c>
       <c r="G66">
+        <f t="shared" si="30"/>
+        <v>1.260105580693816</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <f t="shared" si="31"/>
+        <v>11</v>
+      </c>
+      <c r="C67">
         <f t="shared" si="26"/>
-        <v>4.5416666666666661</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="D67">
         <f t="shared" si="27"/>
-        <v>11</v>
-      </c>
-      <c r="C67">
-        <f>C49/(B13+F13+J13+N13)</f>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="D67">
-        <f>D49/(C13+G13+K13+O13)</f>
-        <v>4.8</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="E67">
-        <f>E49/(D13+H13+L13+P13)</f>
-        <v>4</v>
+        <f t="shared" si="28"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="F67">
-        <f>F49/(E13+I13+M13+Q13)</f>
-        <v>4.333333333333333</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="G67">
+        <f t="shared" si="30"/>
+        <v>1.1904761904761905</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="C68">
         <f t="shared" si="26"/>
-        <v>4.3250000000000002</v>
-      </c>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="D68">
         <f t="shared" si="27"/>
-        <v>12</v>
-      </c>
-      <c r="C68">
-        <f>C50/(B14+F14+J14+N14)</f>
-        <v>5</v>
-      </c>
-      <c r="D68">
-        <f>D50/(C14+G14+K14+O14)</f>
-        <v>5.4</v>
+        <v>1.28</v>
       </c>
       <c r="E68">
-        <f>E50/(D14+H14+L14+P14)</f>
-        <v>4.833333333333333</v>
+        <f t="shared" si="28"/>
+        <v>1.1363636363636365</v>
       </c>
       <c r="F68">
-        <f>F50/(E14+I14+M14+Q14)</f>
-        <v>3.8</v>
+        <f t="shared" si="29"/>
+        <v>1.1666666666666667</v>
       </c>
       <c r="G68">
-        <f t="shared" si="26"/>
-        <v>4.7583333333333337</v>
+        <f t="shared" si="30"/>
+        <v>1.145757575757576</v>
       </c>
       <c r="R68" t="s">
         <v>36</v>
@@ -19974,95 +19983,95 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B69">
+        <f t="shared" si="31"/>
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="26"/>
+        <v>1.2307692307692308</v>
+      </c>
+      <c r="D69">
         <f t="shared" si="27"/>
-        <v>13</v>
-      </c>
-      <c r="C69">
-        <f>C51/(B15+F15+J15+N15)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="D69">
-        <f>D51/(C15+G15+K15+O15)</f>
-        <v>4.8</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="E69">
-        <f>E51/(D15+H15+L15+P15)</f>
-        <v>6</v>
+        <f t="shared" si="28"/>
+        <v>1.1282051282051282</v>
       </c>
       <c r="F69">
-        <f>F51/(E15+I15+M15+Q15)</f>
-        <v>3.5</v>
+        <f t="shared" si="29"/>
+        <v>1.0714285714285714</v>
       </c>
       <c r="G69">
-        <f t="shared" si="26"/>
-        <v>4.7416666666666671</v>
-      </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>1.2742673992673992</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B70">
         <f>B69+1</f>
         <v>14</v>
       </c>
-      <c r="C70" t="e">
-        <f>C52/(B16+F16+J16+N16)</f>
-        <v>#DIV/0!</v>
+      <c r="C70">
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="D70">
-        <f>D52/(C16+G16+K16+O16)</f>
-        <v>4.75</v>
+        <f t="shared" si="27"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="E70">
-        <f>E52/(D16+H16+L16+P16)</f>
-        <v>3.6666666666666665</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="F70">
-        <f>F52/(E16+I16+M16+Q16)</f>
-        <v>4</v>
-      </c>
-      <c r="G70" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="30"/>
+        <v>1.0833333333333333</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B71">
-        <f t="shared" ref="B71:B72" si="33">B70+1</f>
+        <f t="shared" ref="B71:B72" si="37">B70+1</f>
         <v>15</v>
       </c>
-      <c r="C71" t="e">
-        <f t="shared" ref="C71:C72" si="34">C53/(B17+F17+J17+N17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D71" t="e">
-        <f t="shared" ref="D71:D72" si="35">D53/(C17+G17+K17+O17)</f>
-        <v>#DIV/0!</v>
+      <c r="C71">
+        <f t="shared" ref="C71:C72" si="38">C53/(B17+F17+J17+N17)</f>
+        <v>1.1153846153846154</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ref="D71:D72" si="39">D53/(C17+G17+K17+O17)</f>
+        <v>1.5</v>
       </c>
       <c r="E71">
         <f>E53/(D17+H17+L17+P17)</f>
-        <v>3.5</v>
-      </c>
-      <c r="F71" t="e">
+        <v>0.93478260869565222</v>
+      </c>
+      <c r="F71">
         <f>F53/(E17+I17+M17+Q17)</f>
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="30"/>
+        <v>1.1375418060200668</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <f t="shared" si="37"/>
+        <v>16</v>
+      </c>
+      <c r="C72" t="e">
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G71" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <f t="shared" si="33"/>
-        <v>16</v>
-      </c>
-      <c r="C72" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="D72" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -20085,13 +20094,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G274"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -20108,7 +20117,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>A1+1</f>
         <v>1</v>
@@ -20126,7 +20135,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="0">A2+1</f>
         <v>2</v>
@@ -20152,7 +20161,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -20178,7 +20187,7 @@
         <v>5.28E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -20204,7 +20213,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -20230,7 +20239,7 @@
         <v>4.58E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -20256,7 +20265,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -20282,7 +20291,7 @@
         <v>2.4199999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -20308,7 +20317,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -20334,7 +20343,7 @@
         <v>1.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -20360,7 +20369,7 @@
         <v>1.77E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -20386,7 +20395,7 @@
         <v>0.2319</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -20412,7 +20421,7 @@
         <v>0.14810000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -20438,7 +20447,7 @@
         <v>0.80940000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -20464,7 +20473,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -20490,7 +20499,7 @@
         <v>5.7759999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -20516,7 +20525,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -20542,7 +20551,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -20568,7 +20577,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -20594,7 +20603,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -20620,7 +20629,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -20646,7 +20655,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -20672,7 +20681,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -20698,7 +20707,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -20724,7 +20733,7 @@
         <v>0.37159999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -20750,7 +20759,7 @@
         <v>0.11269999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -20776,7 +20785,7 @@
         <v>0.1263</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -20802,7 +20811,7 @@
         <v>9.9099999999999994E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -20828,7 +20837,7 @@
         <v>0.25019999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -20854,7 +20863,7 @@
         <v>2.5499999999999998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -20880,7 +20889,7 @@
         <v>0.66879999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -20906,7 +20915,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -20932,7 +20941,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -20958,7 +20967,7 @@
         <v>3.4036</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -20984,7 +20993,7 @@
         <v>60.7729</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -21010,7 +21019,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -21036,7 +21045,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -21062,7 +21071,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -21088,7 +21097,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -21114,7 +21123,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -21140,7 +21149,7 @@
         <v>2.5306999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -21166,7 +21175,7 @@
         <v>0.3211</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -21192,7 +21201,7 @@
         <v>1.3378000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -21218,7 +21227,7 @@
         <v>0.58420000000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -21244,7 +21253,7 @@
         <v>2.4527999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -21270,7 +21279,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -21296,7 +21305,7 @@
         <v>0.90720000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -21322,7 +21331,7 @@
         <v>0.69669999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -21348,7 +21357,7 @@
         <v>2.0406</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -21374,7 +21383,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -21400,7 +21409,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -21426,7 +21435,7 @@
         <v>0.70089999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -21452,7 +21461,7 @@
         <v>0.50719999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -21478,7 +21487,7 @@
         <v>1.8456999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -21504,7 +21513,7 @@
         <v>8.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -21530,7 +21539,7 @@
         <v>0.31869999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -21556,7 +21565,7 @@
         <v>2.0916999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -21582,7 +21591,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -21608,7 +21617,7 @@
         <v>0.39290000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -21634,7 +21643,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -21660,7 +21669,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -21686,7 +21695,7 @@
         <v>0.81220000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -21712,7 +21721,7 @@
         <v>4.6946000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -21738,7 +21747,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -21764,7 +21773,7 @@
         <v>1.5114000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -21790,7 +21799,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" ref="A67:A130" si="3">A66+1</f>
         <v>66</v>
@@ -21816,7 +21825,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -21842,7 +21851,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -21868,7 +21877,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -21894,7 +21903,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -21920,7 +21929,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -21946,7 +21955,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -21972,7 +21981,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -21998,7 +22007,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -22018,7 +22027,7 @@
         <v>2.8403999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -22038,7 +22047,7 @@
         <v>1.0709</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -22058,7 +22067,7 @@
         <v>0.47489999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -22078,7 +22087,7 @@
         <v>4.2839</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -22098,7 +22107,7 @@
         <v>6.0578000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -22118,7 +22127,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -22138,7 +22147,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -22158,7 +22167,7 @@
         <v>1.9702999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -22178,7 +22187,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -22198,7 +22207,7 @@
         <v>0.8659</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -22218,7 +22227,7 @@
         <v>7.2798999999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -22238,7 +22247,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -22258,7 +22267,7 @@
         <v>3.8517000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -22278,7 +22287,7 @@
         <v>0.18590000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -22298,7 +22307,7 @@
         <v>0.1648</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -22318,7 +22327,7 @@
         <v>1.6514</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -22338,7 +22347,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -22358,7 +22367,7 @@
         <v>9.6390999999999991</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -22378,7 +22387,7 @@
         <v>3.4241999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -22398,7 +22407,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -22418,7 +22427,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -22438,7 +22447,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -22458,7 +22467,7 @@
         <v>7.0521000000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -22478,7 +22487,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -22498,7 +22507,7 @@
         <v>5.9455999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -22518,7 +22527,7 @@
         <v>0.1336</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -22538,7 +22547,7 @@
         <v>2.0261</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -22558,7 +22567,7 @@
         <v>9.7670999999999992</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -22578,7 +22587,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -22598,7 +22607,7 @@
         <v>15.222099999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -22618,7 +22627,7 @@
         <v>44.770800000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -22638,7 +22647,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -22658,7 +22667,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -22678,7 +22687,7 @@
         <v>15.577</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -22698,7 +22707,7 @@
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -22718,7 +22727,7 @@
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -22738,7 +22747,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -22758,7 +22767,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -22778,7 +22787,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -22798,7 +22807,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -22818,7 +22827,7 @@
         <v>2.1301999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -22838,7 +22847,7 @@
         <v>1.6478999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -22858,7 +22867,7 @@
         <v>0.50880000000000003</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -22878,7 +22887,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -22898,7 +22907,7 @@
         <v>1.1048</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -22918,7 +22927,7 @@
         <v>2.7221000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -22938,7 +22947,7 @@
         <v>1.4834000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -22958,7 +22967,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -22978,7 +22987,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -22998,7 +23007,7 @@
         <v>1.0085</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -23018,7 +23027,7 @@
         <v>0.1457</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -23038,7 +23047,7 @@
         <v>1.7193000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -23058,7 +23067,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -23078,7 +23087,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <f t="shared" si="3"/>
         <v>128</v>
@@ -23098,7 +23107,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <f t="shared" si="3"/>
         <v>129</v>
@@ -23118,7 +23127,7 @@
         <v>1.2566999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <f t="shared" ref="A131:A194" si="7">A130+1</f>
         <v>130</v>
@@ -23138,7 +23147,7 @@
         <v>7.1199999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <f t="shared" si="7"/>
         <v>131</v>
@@ -23158,7 +23167,7 @@
         <v>0.75900000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <f t="shared" si="7"/>
         <v>132</v>
@@ -23178,7 +23187,7 @@
         <v>0.94830000000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <f t="shared" si="7"/>
         <v>133</v>
@@ -23198,7 +23207,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <f t="shared" si="7"/>
         <v>134</v>
@@ -23218,7 +23227,7 @@
         <v>1.0004999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <f t="shared" si="7"/>
         <v>135</v>
@@ -23238,7 +23247,7 @@
         <v>0.81410000000000005</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <f t="shared" si="7"/>
         <v>136</v>
@@ -23258,7 +23267,7 @@
         <v>0.72619999999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <f t="shared" si="7"/>
         <v>137</v>
@@ -23278,7 +23287,7 @@
         <v>3.2185999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <f t="shared" si="7"/>
         <v>138</v>
@@ -23298,7 +23307,7 @@
         <v>2.3610000000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <f t="shared" si="7"/>
         <v>139</v>
@@ -23318,7 +23327,7 @@
         <v>1.6899</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <f t="shared" si="7"/>
         <v>140</v>
@@ -23338,7 +23347,7 @@
         <v>1.0873999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <f t="shared" si="7"/>
         <v>141</v>
@@ -23358,7 +23367,7 @@
         <v>5.2949999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <f t="shared" si="7"/>
         <v>142</v>
@@ -23378,7 +23387,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <f t="shared" si="7"/>
         <v>143</v>
@@ -23398,7 +23407,7 @@
         <v>2.2122999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <f t="shared" si="7"/>
         <v>144</v>
@@ -23418,7 +23427,7 @@
         <v>0.2046</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <f t="shared" si="7"/>
         <v>145</v>
@@ -23438,7 +23447,7 @@
         <v>0.2651</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <f t="shared" si="7"/>
         <v>146</v>
@@ -23458,7 +23467,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <f t="shared" si="7"/>
         <v>147</v>
@@ -23478,7 +23487,7 @@
         <v>0.55420000000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <f t="shared" si="7"/>
         <v>148</v>
@@ -23498,7 +23507,7 @@
         <v>3.0125000000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <f t="shared" si="7"/>
         <v>149</v>
@@ -23518,7 +23527,7 @@
         <v>2.3546</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <f t="shared" si="7"/>
         <v>150</v>
@@ -23538,7 +23547,7 @@
         <v>3.2631000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <f t="shared" si="7"/>
         <v>151</v>
@@ -23558,7 +23567,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <f t="shared" si="7"/>
         <v>152</v>
@@ -23582,7 +23591,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <f t="shared" si="7"/>
         <v>153</v>
@@ -23606,7 +23615,7 @@
         <v>2.0931000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <f t="shared" si="7"/>
         <v>154</v>
@@ -23630,7 +23639,7 @@
         <v>1.5791999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <f t="shared" si="7"/>
         <v>155</v>
@@ -23654,7 +23663,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <f t="shared" si="7"/>
         <v>156</v>
@@ -23678,7 +23687,7 @@
         <v>4.0930999999999997</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <f t="shared" si="7"/>
         <v>157</v>
@@ -23702,7 +23711,7 @@
         <v>5.1626000000000003</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <f t="shared" si="7"/>
         <v>158</v>
@@ -23726,7 +23735,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <f t="shared" si="7"/>
         <v>159</v>
@@ -23750,7 +23759,7 @@
         <v>2.1892999999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <f t="shared" si="7"/>
         <v>160</v>
@@ -23774,7 +23783,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <f t="shared" si="7"/>
         <v>161</v>
@@ -23798,7 +23807,7 @@
         <v>4.6925999999999997</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <f t="shared" si="7"/>
         <v>162</v>
@@ -23822,7 +23831,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <f t="shared" si="7"/>
         <v>163</v>
@@ -23846,7 +23855,7 @@
         <v>2.9220000000000002</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <f t="shared" si="7"/>
         <v>164</v>
@@ -23870,7 +23879,7 @@
         <v>1.0652999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <f t="shared" si="7"/>
         <v>165</v>
@@ -23894,7 +23903,7 @@
         <v>10.048999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <f t="shared" si="7"/>
         <v>166</v>
@@ -23918,7 +23927,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <f t="shared" si="7"/>
         <v>167</v>
@@ -23942,7 +23951,7 @@
         <v>0.4763</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <f t="shared" si="7"/>
         <v>168</v>
@@ -23966,7 +23975,7 @@
         <v>9.3762000000000008</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <f t="shared" si="7"/>
         <v>169</v>
@@ -23990,7 +23999,7 @@
         <v>2.9771000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <f t="shared" si="7"/>
         <v>170</v>
@@ -24014,7 +24023,7 @@
         <v>4.1044999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <f t="shared" si="7"/>
         <v>171</v>
@@ -24038,7 +24047,7 @@
         <v>4.1224999999999996</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <f t="shared" si="7"/>
         <v>172</v>
@@ -24062,7 +24071,7 @@
         <v>7.3800000000000004E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <f t="shared" si="7"/>
         <v>173</v>
@@ -24086,7 +24095,7 @@
         <v>1.0723</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <f t="shared" si="7"/>
         <v>174</v>
@@ -24110,7 +24119,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <f t="shared" si="7"/>
         <v>175</v>
@@ -24134,7 +24143,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <f t="shared" si="7"/>
         <v>176</v>
@@ -24158,7 +24167,7 @@
         <v>0.54630000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <f t="shared" si="7"/>
         <v>177</v>
@@ -24182,7 +24191,7 @@
         <v>3.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <f t="shared" si="7"/>
         <v>178</v>
@@ -24206,7 +24215,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <f t="shared" si="7"/>
         <v>179</v>
@@ -24230,7 +24239,7 @@
         <v>1.2437</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <f t="shared" si="7"/>
         <v>180</v>
@@ -24254,7 +24263,7 @@
         <v>0.92569999999999997</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <f t="shared" si="7"/>
         <v>181</v>
@@ -24278,7 +24287,7 @@
         <v>7.0777000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <f t="shared" si="7"/>
         <v>182</v>
@@ -24302,7 +24311,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <f t="shared" si="7"/>
         <v>183</v>
@@ -24326,7 +24335,7 @@
         <v>5.7310999999999996</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <f t="shared" si="7"/>
         <v>184</v>
@@ -24350,7 +24359,7 @@
         <v>2.3121</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <f t="shared" si="7"/>
         <v>185</v>
@@ -24374,7 +24383,7 @@
         <v>3.9407999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <f t="shared" si="7"/>
         <v>186</v>
@@ -24398,7 +24407,7 @@
         <v>2.6374</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <f t="shared" si="7"/>
         <v>187</v>
@@ -24422,7 +24431,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <f t="shared" si="7"/>
         <v>188</v>
@@ -24446,7 +24455,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <f t="shared" si="7"/>
         <v>189</v>
@@ -24470,7 +24479,7 @@
         <v>0.17480000000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <f t="shared" si="7"/>
         <v>190</v>
@@ -24494,7 +24503,7 @@
         <v>1.8111999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <f t="shared" si="7"/>
         <v>191</v>
@@ -24518,7 +24527,7 @@
         <v>1.1516999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <f t="shared" si="7"/>
         <v>192</v>
@@ -24542,7 +24551,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <f t="shared" si="7"/>
         <v>193</v>
@@ -24566,7 +24575,7 @@
         <v>1.2322</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <f t="shared" ref="A195:A258" si="12">A194+1</f>
         <v>194</v>
@@ -24590,7 +24599,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <f t="shared" si="12"/>
         <v>195</v>
@@ -24614,7 +24623,7 @@
         <v>142.6748</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <f t="shared" si="12"/>
         <v>196</v>
@@ -24638,7 +24647,7 @@
         <v>66.016499999999994</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <f t="shared" si="12"/>
         <v>197</v>
@@ -24662,7 +24671,7 @@
         <v>0.1588</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <f t="shared" si="12"/>
         <v>198</v>
@@ -24686,7 +24695,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <f t="shared" si="12"/>
         <v>199</v>
@@ -24710,7 +24719,7 @@
         <v>6.2700000000000006E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <f t="shared" si="12"/>
         <v>200</v>
@@ -24734,7 +24743,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <f t="shared" si="12"/>
         <v>201</v>
@@ -24758,7 +24767,7 @@
         <v>7.85E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <f t="shared" si="12"/>
         <v>202</v>
@@ -24782,7 +24791,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <f t="shared" si="12"/>
         <v>203</v>
@@ -24806,7 +24815,7 @@
         <v>0.2475</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <f t="shared" si="12"/>
         <v>204</v>
@@ -24830,7 +24839,7 @@
         <v>0.16669999999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <f t="shared" si="12"/>
         <v>205</v>
@@ -24854,7 +24863,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <f t="shared" si="12"/>
         <v>206</v>
@@ -24878,7 +24887,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <f t="shared" si="12"/>
         <v>207</v>
@@ -24902,7 +24911,7 @@
         <v>0.82289999999999996</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <f t="shared" si="12"/>
         <v>208</v>
@@ -24926,7 +24935,7 @@
         <v>0.1802</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <f t="shared" si="12"/>
         <v>209</v>
@@ -24950,7 +24959,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <f t="shared" si="12"/>
         <v>210</v>
@@ -24974,7 +24983,7 @@
         <v>0.24149999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <f t="shared" si="12"/>
         <v>211</v>
@@ -24998,7 +25007,7 @@
         <v>0.92849999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <f t="shared" si="12"/>
         <v>212</v>
@@ -25022,7 +25031,7 @@
         <v>9.7299999999999998E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <f t="shared" si="12"/>
         <v>213</v>
@@ -25046,7 +25055,7 @@
         <v>2.0535000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <f t="shared" si="12"/>
         <v>214</v>
@@ -25070,7 +25079,7 @@
         <v>0.86839999999999995</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <f t="shared" si="12"/>
         <v>215</v>
@@ -25094,7 +25103,7 @@
         <v>0.1096</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <f t="shared" si="12"/>
         <v>216</v>
@@ -25118,7 +25127,7 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <f t="shared" si="12"/>
         <v>217</v>
@@ -25142,7 +25151,7 @@
         <v>0.53129999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <f t="shared" si="12"/>
         <v>218</v>
@@ -25166,7 +25175,7 @@
         <v>0.1101</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <f t="shared" si="12"/>
         <v>219</v>
@@ -25190,7 +25199,7 @@
         <v>1.5569999999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <f t="shared" si="12"/>
         <v>220</v>
@@ -25214,7 +25223,7 @@
         <v>0.49490000000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <f t="shared" si="12"/>
         <v>221</v>
@@ -25238,7 +25247,7 @@
         <v>0.52310000000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <f t="shared" si="12"/>
         <v>222</v>
@@ -25262,7 +25271,7 @@
         <v>1.9811000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <f t="shared" si="12"/>
         <v>223</v>
@@ -25286,7 +25295,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <f t="shared" si="12"/>
         <v>224</v>
@@ -25310,7 +25319,7 @@
         <v>1.7374000000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <f t="shared" si="12"/>
         <v>225</v>
@@ -25334,7 +25343,7 @@
         <v>1.3616999999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <f t="shared" si="12"/>
         <v>226</v>
@@ -25358,7 +25367,7 @@
         <v>3.0470999999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <f t="shared" si="12"/>
         <v>227</v>
@@ -25382,7 +25391,7 @@
         <v>2.4195000000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <f t="shared" si="12"/>
         <v>228</v>
@@ -25406,7 +25415,7 @@
         <v>3.0716000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <f t="shared" si="12"/>
         <v>229</v>
@@ -25430,7 +25439,7 @@
         <v>8.4161000000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <f t="shared" si="12"/>
         <v>230</v>
@@ -25454,7 +25463,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <f t="shared" si="12"/>
         <v>231</v>
@@ -25478,7 +25487,7 @@
         <v>4.4885000000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <f t="shared" si="12"/>
         <v>232</v>
@@ -25502,7 +25511,7 @@
         <v>3.0087999999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <f t="shared" si="12"/>
         <v>233</v>
@@ -25526,7 +25535,7 @@
         <v>5.0061</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <f t="shared" si="12"/>
         <v>234</v>
@@ -25550,7 +25559,7 @@
         <v>6.2763999999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <f t="shared" si="12"/>
         <v>235</v>
@@ -25574,7 +25583,7 @@
         <v>1.0075000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <f t="shared" si="12"/>
         <v>236</v>
@@ -25598,7 +25607,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <f t="shared" si="12"/>
         <v>237</v>
@@ -25622,7 +25631,7 @@
         <v>0.1948</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <f t="shared" si="12"/>
         <v>238</v>
@@ -25646,7 +25655,7 @@
         <v>3.9540999999999999</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <f t="shared" si="12"/>
         <v>239</v>
@@ -25670,7 +25679,7 @@
         <v>7.1148999999999996</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <f t="shared" si="12"/>
         <v>240</v>
@@ -25694,7 +25703,7 @@
         <v>0.48180000000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <f t="shared" si="12"/>
         <v>241</v>
@@ -25718,7 +25727,7 @@
         <v>3.4104000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <f t="shared" si="12"/>
         <v>242</v>
@@ -25742,7 +25751,7 @@
         <v>4.8430999999999997</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <f t="shared" si="12"/>
         <v>243</v>
@@ -25766,7 +25775,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <f t="shared" si="12"/>
         <v>244</v>
@@ -25790,7 +25799,7 @@
         <v>1.2609999999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <f t="shared" si="12"/>
         <v>245</v>
@@ -25814,7 +25823,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <f t="shared" si="12"/>
         <v>246</v>
@@ -25838,7 +25847,7 @@
         <v>12.6676</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <f t="shared" si="12"/>
         <v>247</v>
@@ -25862,7 +25871,7 @@
         <v>2.4619</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <f t="shared" si="12"/>
         <v>248</v>
@@ -25886,7 +25895,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <f t="shared" si="12"/>
         <v>249</v>
@@ -25910,7 +25919,7 @@
         <v>9.6356999999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <f t="shared" si="12"/>
         <v>250</v>
@@ -25934,7 +25943,7 @@
         <v>5.3213999999999997</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <f t="shared" si="12"/>
         <v>251</v>
@@ -25958,7 +25967,7 @@
         <v>29.606400000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <f t="shared" si="12"/>
         <v>252</v>
@@ -25982,7 +25991,7 @@
         <v>1.9729000000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <f t="shared" si="12"/>
         <v>253</v>
@@ -26006,7 +26015,7 @@
         <v>14.454599999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <f t="shared" si="12"/>
         <v>254</v>
@@ -26030,7 +26039,7 @@
         <v>6.1599000000000004</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <f t="shared" si="12"/>
         <v>255</v>
@@ -26054,7 +26063,7 @@
         <v>8.8104999999999993</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <f t="shared" si="12"/>
         <v>256</v>
@@ -26078,7 +26087,7 @@
         <v>3.2517999999999998</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <f t="shared" si="12"/>
         <v>257</v>
@@ -26102,7 +26111,7 @@
         <v>0.6653</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <f t="shared" ref="A259:A274" si="16">A258+1</f>
         <v>258</v>
@@ -26126,7 +26135,7 @@
         <v>39.142499999999998</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <f t="shared" si="16"/>
         <v>259</v>
@@ -26150,7 +26159,7 @@
         <v>17.102599999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <f t="shared" si="16"/>
         <v>260</v>
@@ -26174,7 +26183,7 @@
         <v>0.1105</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <f t="shared" si="16"/>
         <v>261</v>
@@ -26198,7 +26207,7 @@
         <v>0.68840000000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <f t="shared" si="16"/>
         <v>262</v>
@@ -26222,7 +26231,7 @@
         <v>12.632300000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <f t="shared" si="16"/>
         <v>263</v>
@@ -26246,7 +26255,7 @@
         <v>37.314900000000002</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <f t="shared" si="16"/>
         <v>264</v>
@@ -26270,7 +26279,7 @@
         <v>182.245</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <f t="shared" si="16"/>
         <v>265</v>
@@ -26294,7 +26303,7 @@
         <v>3.8239000000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <f t="shared" si="16"/>
         <v>266</v>
@@ -26318,7 +26327,7 @@
         <v>34.034799999999997</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <f t="shared" si="16"/>
         <v>267</v>
@@ -26342,7 +26351,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <f t="shared" si="16"/>
         <v>268</v>
@@ -26366,7 +26375,7 @@
         <v>3.7408000000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <f t="shared" si="16"/>
         <v>269</v>
@@ -26390,7 +26399,7 @@
         <v>1.0761000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <f t="shared" si="16"/>
         <v>270</v>
@@ -26414,7 +26423,7 @@
         <v>5.0109000000000004</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <f t="shared" si="16"/>
         <v>271</v>
@@ -26438,7 +26447,7 @@
         <v>0.1366</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <f t="shared" si="16"/>
         <v>272</v>
@@ -26462,7 +26471,7 @@
         <v>15.595700000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <f t="shared" si="16"/>
         <v>273</v>
@@ -26497,23 +26506,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D1" s="10"/>
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D2" s="11"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>48</v>
       </c>
@@ -26523,7 +26532,7 @@
       <c r="E3" s="20"/>
       <c r="F3" s="21"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1840</v>
       </c>
@@ -26537,7 +26546,7 @@
       <c r="E4" s="20"/>
       <c r="F4" s="21"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1860</v>
       </c>
@@ -26551,7 +26560,7 @@
       <c r="E5" s="20"/>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1880</v>
       </c>
@@ -26565,7 +26574,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1900</v>
       </c>
@@ -26579,7 +26588,7 @@
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1920</v>
       </c>
@@ -26593,7 +26602,7 @@
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1940</v>
       </c>
@@ -26607,7 +26616,7 @@
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1960</v>
       </c>
@@ -26621,7 +26630,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>1980</v>
       </c>
@@ -26635,7 +26644,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="10">
         <v>2000</v>
       </c>
@@ -26649,7 +26658,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="10">
         <v>2020</v>
       </c>
@@ -26663,7 +26672,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="10">
         <f t="shared" ref="B14:B23" si="1">B13+20</f>
         <v>2040</v>
@@ -26679,7 +26688,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="10">
         <f t="shared" si="1"/>
         <v>2060</v>
@@ -26693,7 +26702,7 @@
         <v>0.9396000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="10">
         <f t="shared" si="1"/>
         <v>2080</v>
@@ -26707,7 +26716,7 @@
         <v>1.1052</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" s="10">
         <f t="shared" si="1"/>
         <v>2100</v>
@@ -26721,7 +26730,7 @@
         <v>1.2707999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" s="10">
         <f t="shared" si="1"/>
         <v>2120</v>
@@ -26735,7 +26744,7 @@
         <v>1.4364000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <f t="shared" si="1"/>
         <v>2140</v>
@@ -26749,7 +26758,7 @@
         <v>1.6020000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="10">
         <f t="shared" si="1"/>
         <v>2160</v>
@@ -26763,7 +26772,7 @@
         <v>1.7676000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" s="10">
         <f t="shared" si="1"/>
         <v>2180</v>
@@ -26777,7 +26786,7 @@
         <v>1.9332000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="10">
         <f t="shared" si="1"/>
         <v>2200</v>
@@ -26791,7 +26800,7 @@
         <v>2.0987999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="10">
         <f t="shared" si="1"/>
         <v>2220</v>
@@ -26805,7 +26814,7 @@
         <v>2.2644000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>50</v>
       </c>
@@ -26813,7 +26822,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1.4</v>
       </c>
@@ -26829,7 +26838,7 @@
       </c>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="14">
         <v>1970</v>
       </c>
@@ -26842,7 +26851,7 @@
       </c>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="14">
         <v>1985</v>
       </c>
@@ -26855,7 +26864,7 @@
       </c>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="14">
         <v>1995</v>
       </c>
@@ -26868,7 +26877,7 @@
       </c>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="14">
         <v>2000</v>
       </c>
@@ -26881,7 +26890,7 @@
       </c>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="14">
         <v>2010</v>
       </c>
@@ -26894,7 +26903,7 @@
       </c>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="17">
         <v>2030</v>
       </c>
@@ -26906,7 +26915,7 @@
         <v>0.73424226808222071</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <f t="shared" ref="B33:B41" si="4">B32+20</f>
         <v>2050</v>
@@ -26920,7 +26929,7 @@
         <v>0.75932860670204572</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34">
         <f t="shared" si="4"/>
         <v>2070</v>
@@ -26934,7 +26943,7 @@
         <v>0.78012664704896206</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35">
         <f t="shared" si="4"/>
         <v>2090</v>
@@ -26950,7 +26959,7 @@
       <c r="F35" s="16"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36">
         <f t="shared" si="4"/>
         <v>2110</v>
@@ -26966,7 +26975,7 @@
       <c r="F36" s="16"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37">
         <f t="shared" si="4"/>
         <v>2130</v>
@@ -26982,7 +26991,7 @@
       <c r="F37" s="16"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38">
         <f t="shared" si="4"/>
         <v>2150</v>
@@ -26998,7 +27007,7 @@
       <c r="F38" s="16"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39">
         <f t="shared" si="4"/>
         <v>2170</v>
@@ -27014,7 +27023,7 @@
       <c r="F39" s="16"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40">
         <f t="shared" si="4"/>
         <v>2190</v>
@@ -27030,7 +27039,7 @@
       <c r="F40" s="16"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41">
         <f t="shared" si="4"/>
         <v>2210</v>
@@ -27046,7 +27055,7 @@
       <c r="F41" s="16"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>2000</v>
       </c>
@@ -27057,6 +27066,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F5:F6"/>
@@ -27064,13 +27080,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
